--- a/dat/B. TECH. II SEM JUNE 2021 (COVID 19).xlsx
+++ b/dat/B. TECH. II SEM JUNE 2021 (COVID 19).xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cloudconvert\server\files\tasks\c860d5ca-a670-4761-8dfd-f4d95d5f2547\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8D802F3-6E3D-4B8C-AC24-6F7E75DC43B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="7875"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="7872" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="C S" sheetId="6" r:id="rId1"/>
@@ -31,7 +25,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">EE!$1:$7</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">ME!$1:$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2042,9 +2036,6 @@
     <t xml:space="preserve">Prayag Singh Bisht </t>
   </si>
   <si>
-    <t>Divyaman Juguri</t>
-  </si>
-  <si>
     <t>Jai Prakash Jaguri</t>
   </si>
   <si>
@@ -2469,13 +2460,16 @@
   </si>
   <si>
     <t>TABULATION CHART FOR  B. TECH. (CIVIL ENGG.) FIRST YEAR (SECOND SEMESTER) EXAMINATION JUNE 2021 ( HELD ON SEPTEMBER 2021)</t>
+  </si>
+  <si>
+    <t>Divyaman Jaguri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="40" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="40">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3277,6 +3271,15 @@
     <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3284,25 +3287,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3319,16 +3307,16 @@
     <xf numFmtId="1" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3337,13 +3325,19 @@
     <xf numFmtId="1" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4222,7 +4216,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{538A5D1D-C79A-4F79-94B6-806B3483B786}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{538A5D1D-C79A-4F79-94B6-806B3483B786}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4282,7 +4276,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01DCDCDA-9FA4-477C-A8E7-B8B20D04CB69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01DCDCDA-9FA4-477C-A8E7-B8B20D04CB69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4370,7 +4364,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4402,27 +4396,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4454,24 +4430,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4647,199 +4605,199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:AF71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A44" sqref="A44:IV44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12"/>
-    <col min="2" max="3" width="32.28515625" style="12" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="14" customWidth="1"/>
-    <col min="8" max="28" width="10.28515625" style="12" customWidth="1"/>
-    <col min="29" max="29" width="18.5703125" style="12" customWidth="1"/>
-    <col min="30" max="30" width="18.85546875" style="12" customWidth="1"/>
-    <col min="31" max="31" width="26.28515625" style="12" customWidth="1"/>
-    <col min="32" max="32" width="44.42578125" style="12" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="9.109375" style="12"/>
+    <col min="2" max="3" width="32.33203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="37.44140625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="14" customWidth="1"/>
+    <col min="8" max="28" width="10.33203125" style="12" customWidth="1"/>
+    <col min="29" max="29" width="18.5546875" style="12" customWidth="1"/>
+    <col min="30" max="30" width="18.88671875" style="12" customWidth="1"/>
+    <col min="31" max="31" width="26.33203125" style="12" customWidth="1"/>
+    <col min="32" max="32" width="44.44140625" style="12" customWidth="1"/>
+    <col min="33" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="164" t="s">
+    <row r="1" spans="1:32" ht="48.75" customHeight="1">
+      <c r="A1" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="164"/>
-      <c r="T1" s="164"/>
-      <c r="U1" s="164"/>
-      <c r="V1" s="164"/>
-      <c r="W1" s="164"/>
-      <c r="X1" s="164"/>
-      <c r="Y1" s="164"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="164"/>
-      <c r="AB1" s="164"/>
-      <c r="AC1" s="164"/>
-      <c r="AD1" s="164"/>
-      <c r="AE1" s="164"/>
-      <c r="AF1" s="164"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="167"/>
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="167"/>
+      <c r="AD1" s="167"/>
+      <c r="AE1" s="167"/>
+      <c r="AF1" s="167"/>
     </row>
-    <row r="2" spans="1:32" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="164" t="s">
+    <row r="2" spans="1:32" ht="48.75" customHeight="1">
+      <c r="A2" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="164"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="164"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="164"/>
-      <c r="Y2" s="164"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="164"/>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="164"/>
-      <c r="AD2" s="164"/>
-      <c r="AE2" s="164"/>
-      <c r="AF2" s="164"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="167"/>
+      <c r="AB2" s="167"/>
+      <c r="AC2" s="167"/>
+      <c r="AD2" s="167"/>
+      <c r="AE2" s="167"/>
+      <c r="AF2" s="167"/>
     </row>
-    <row r="3" spans="1:32" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="163" t="s">
-        <v>769</v>
-      </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="163"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="163"/>
-      <c r="V3" s="163"/>
-      <c r="W3" s="163"/>
-      <c r="X3" s="163"/>
-      <c r="Y3" s="163"/>
-      <c r="Z3" s="163"/>
-      <c r="AA3" s="163"/>
-      <c r="AB3" s="163"/>
-      <c r="AC3" s="163"/>
-      <c r="AD3" s="163"/>
-      <c r="AE3" s="163"/>
-      <c r="AF3" s="163"/>
+    <row r="3" spans="1:32" ht="48.75" customHeight="1">
+      <c r="A3" s="166" t="s">
+        <v>768</v>
+      </c>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="166"/>
+      <c r="T3" s="166"/>
+      <c r="U3" s="166"/>
+      <c r="V3" s="166"/>
+      <c r="W3" s="166"/>
+      <c r="X3" s="166"/>
+      <c r="Y3" s="166"/>
+      <c r="Z3" s="166"/>
+      <c r="AA3" s="166"/>
+      <c r="AB3" s="166"/>
+      <c r="AC3" s="166"/>
+      <c r="AD3" s="166"/>
+      <c r="AE3" s="166"/>
+      <c r="AF3" s="166"/>
     </row>
-    <row r="4" spans="1:32" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="165" t="s">
+    <row r="4" spans="1:32" ht="151.5" customHeight="1">
+      <c r="A4" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="165" t="s">
+      <c r="D4" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="167" t="s">
+      <c r="E4" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="167" t="s">
+      <c r="F4" s="168" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="169" t="s">
+      <c r="H4" s="163" t="s">
+        <v>773</v>
+      </c>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163" t="s">
+        <v>793</v>
+      </c>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163" t="s">
         <v>774</v>
       </c>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169" t="s">
-        <v>794</v>
-      </c>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169" t="s">
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="163" t="s">
         <v>775</v>
       </c>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="169" t="s">
+      <c r="R4" s="163"/>
+      <c r="S4" s="163"/>
+      <c r="T4" s="163" t="s">
         <v>776</v>
       </c>
-      <c r="R4" s="169"/>
-      <c r="S4" s="169"/>
-      <c r="T4" s="169" t="s">
+      <c r="U4" s="163"/>
+      <c r="V4" s="163"/>
+      <c r="W4" s="163" t="s">
         <v>777</v>
       </c>
-      <c r="U4" s="169"/>
-      <c r="V4" s="169"/>
-      <c r="W4" s="169" t="s">
+      <c r="X4" s="163"/>
+      <c r="Y4" s="163"/>
+      <c r="Z4" s="163" t="s">
         <v>778</v>
       </c>
-      <c r="X4" s="169"/>
-      <c r="Y4" s="169"/>
-      <c r="Z4" s="169" t="s">
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="163"/>
+      <c r="AC4" s="152" t="s">
         <v>779</v>
-      </c>
-      <c r="AA4" s="169"/>
-      <c r="AB4" s="169"/>
-      <c r="AC4" s="152" t="s">
-        <v>780</v>
       </c>
       <c r="AD4" s="152" t="s">
         <v>10</v>
@@ -4851,13 +4809,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="165"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
+    <row r="5" spans="1:32" ht="57.75" customHeight="1">
+      <c r="A5" s="164"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
       <c r="G5" s="19"/>
       <c r="H5" s="7" t="s">
         <v>6</v>
@@ -4927,13 +4885,13 @@
       <c r="AE5" s="18"/>
       <c r="AF5" s="18"/>
     </row>
-    <row r="6" spans="1:32" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="165"/>
-      <c r="B6" s="165"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
+    <row r="6" spans="1:32" ht="45" customHeight="1">
+      <c r="A6" s="164"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
       <c r="G6" s="38" t="s">
         <v>2</v>
       </c>
@@ -5016,13 +4974,13 @@
       <c r="AE6" s="20"/>
       <c r="AF6" s="20"/>
     </row>
-    <row r="7" spans="1:32" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="166"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
+    <row r="7" spans="1:32" ht="45.75" customHeight="1">
+      <c r="A7" s="165"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
       <c r="G7" s="21" t="s">
         <v>3</v>
       </c>
@@ -5082,7 +5040,7 @@
       <c r="AE7" s="23"/>
       <c r="AF7" s="23"/>
     </row>
-    <row r="8" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="87.75" customHeight="1">
       <c r="A8" s="102">
         <v>1</v>
       </c>
@@ -5180,11 +5138,11 @@
         <v>695</v>
       </c>
       <c r="AE8" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF8" s="97"/>
     </row>
-    <row r="9" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="87.75" customHeight="1">
       <c r="A9" s="102">
         <v>2</v>
       </c>
@@ -5282,11 +5240,11 @@
         <v>601</v>
       </c>
       <c r="AE9" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF9" s="97"/>
     </row>
-    <row r="10" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="87.75" customHeight="1">
       <c r="A10" s="102">
         <v>3</v>
       </c>
@@ -5384,11 +5342,11 @@
         <v>699</v>
       </c>
       <c r="AE10" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF10" s="97"/>
     </row>
-    <row r="11" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="87.75" customHeight="1">
       <c r="A11" s="102">
         <v>4</v>
       </c>
@@ -5486,11 +5444,11 @@
         <v>719</v>
       </c>
       <c r="AE11" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF11" s="97"/>
     </row>
-    <row r="12" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="87.75" customHeight="1">
       <c r="A12" s="102">
         <v>5</v>
       </c>
@@ -5588,11 +5546,11 @@
         <v>744</v>
       </c>
       <c r="AE12" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF12" s="97"/>
     </row>
-    <row r="13" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="87.75" customHeight="1">
       <c r="A13" s="102">
         <v>6</v>
       </c>
@@ -5690,11 +5648,11 @@
         <v>750</v>
       </c>
       <c r="AE13" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF13" s="97"/>
     </row>
-    <row r="14" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="87.75" customHeight="1">
       <c r="A14" s="102">
         <v>7</v>
       </c>
@@ -5792,11 +5750,11 @@
         <v>684</v>
       </c>
       <c r="AE14" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF14" s="97"/>
     </row>
-    <row r="15" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="87.75" customHeight="1">
       <c r="A15" s="102">
         <v>8</v>
       </c>
@@ -5894,11 +5852,11 @@
         <v>700</v>
       </c>
       <c r="AE15" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF15" s="97"/>
     </row>
-    <row r="16" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="87.75" customHeight="1">
       <c r="A16" s="102">
         <v>9</v>
       </c>
@@ -5996,11 +5954,11 @@
         <v>745</v>
       </c>
       <c r="AE16" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF16" s="97"/>
     </row>
-    <row r="17" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="87.75" customHeight="1">
       <c r="A17" s="102">
         <v>10</v>
       </c>
@@ -6098,11 +6056,11 @@
         <v>764</v>
       </c>
       <c r="AE17" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF17" s="97"/>
     </row>
-    <row r="18" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="87.75" customHeight="1">
       <c r="A18" s="102">
         <v>11</v>
       </c>
@@ -6200,11 +6158,11 @@
         <v>691</v>
       </c>
       <c r="AE18" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF18" s="97"/>
     </row>
-    <row r="19" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="87.75" customHeight="1">
       <c r="A19" s="102">
         <v>12</v>
       </c>
@@ -6302,11 +6260,11 @@
         <v>566</v>
       </c>
       <c r="AE19" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF19" s="97"/>
     </row>
-    <row r="20" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="87.75" customHeight="1">
       <c r="A20" s="102">
         <v>13</v>
       </c>
@@ -6404,11 +6362,11 @@
         <v>690</v>
       </c>
       <c r="AE20" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF20" s="97"/>
     </row>
-    <row r="21" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="87.75" customHeight="1">
       <c r="A21" s="102">
         <v>14</v>
       </c>
@@ -6506,11 +6464,11 @@
         <v>700</v>
       </c>
       <c r="AE21" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF21" s="97"/>
     </row>
-    <row r="22" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="87.75" customHeight="1">
       <c r="A22" s="102">
         <v>15</v>
       </c>
@@ -6608,11 +6566,11 @@
         <v>703</v>
       </c>
       <c r="AE22" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF22" s="97"/>
     </row>
-    <row r="23" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="87.75" customHeight="1">
       <c r="A23" s="102">
         <v>16</v>
       </c>
@@ -6710,11 +6668,11 @@
         <v>694</v>
       </c>
       <c r="AE23" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF23" s="97"/>
     </row>
-    <row r="24" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="87.75" customHeight="1">
       <c r="A24" s="102">
         <v>17</v>
       </c>
@@ -6812,11 +6770,11 @@
         <v>730</v>
       </c>
       <c r="AE24" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF24" s="97"/>
     </row>
-    <row r="25" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" ht="87.75" customHeight="1">
       <c r="A25" s="102">
         <v>18</v>
       </c>
@@ -6914,11 +6872,11 @@
         <v>757</v>
       </c>
       <c r="AE25" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF25" s="97"/>
     </row>
-    <row r="26" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="87.75" customHeight="1">
       <c r="A26" s="102">
         <v>19</v>
       </c>
@@ -7016,11 +6974,11 @@
         <v>654</v>
       </c>
       <c r="AE26" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF26" s="97"/>
     </row>
-    <row r="27" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" ht="87.75" customHeight="1">
       <c r="A27" s="102">
         <v>20</v>
       </c>
@@ -7118,11 +7076,11 @@
         <v>667</v>
       </c>
       <c r="AE27" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF27" s="97"/>
     </row>
-    <row r="28" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" ht="87.75" customHeight="1">
       <c r="A28" s="102">
         <v>21</v>
       </c>
@@ -7220,11 +7178,11 @@
         <v>625</v>
       </c>
       <c r="AE28" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF28" s="97"/>
     </row>
-    <row r="29" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" ht="87.75" customHeight="1">
       <c r="A29" s="102">
         <v>22</v>
       </c>
@@ -7322,11 +7280,11 @@
         <v>709</v>
       </c>
       <c r="AE29" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF29" s="97"/>
     </row>
-    <row r="30" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" ht="87.75" customHeight="1">
       <c r="A30" s="102">
         <v>23</v>
       </c>
@@ -7424,11 +7382,11 @@
         <v>712</v>
       </c>
       <c r="AE30" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF30" s="97"/>
     </row>
-    <row r="31" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" ht="87.75" customHeight="1">
       <c r="A31" s="102">
         <v>24</v>
       </c>
@@ -7526,11 +7484,11 @@
         <v>619</v>
       </c>
       <c r="AE31" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF31" s="97"/>
     </row>
-    <row r="32" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" ht="87.75" customHeight="1">
       <c r="A32" s="102">
         <v>25</v>
       </c>
@@ -7628,11 +7586,11 @@
         <v>720</v>
       </c>
       <c r="AE32" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF32" s="97"/>
     </row>
-    <row r="33" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" ht="87.75" customHeight="1">
       <c r="A33" s="102">
         <v>26</v>
       </c>
@@ -7730,11 +7688,11 @@
         <v>782</v>
       </c>
       <c r="AE33" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF33" s="97"/>
     </row>
-    <row r="34" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" ht="87.75" customHeight="1">
       <c r="A34" s="102">
         <v>27</v>
       </c>
@@ -7832,11 +7790,11 @@
         <v>728</v>
       </c>
       <c r="AE34" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF34" s="97"/>
     </row>
-    <row r="35" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" ht="87.75" customHeight="1">
       <c r="A35" s="102">
         <v>28</v>
       </c>
@@ -7934,11 +7892,11 @@
         <v>728</v>
       </c>
       <c r="AE35" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF35" s="97"/>
     </row>
-    <row r="36" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" ht="87.75" customHeight="1">
       <c r="A36" s="102">
         <v>29</v>
       </c>
@@ -8036,11 +7994,11 @@
         <v>731</v>
       </c>
       <c r="AE36" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF36" s="97"/>
     </row>
-    <row r="37" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" ht="87.75" customHeight="1">
       <c r="A37" s="102">
         <v>30</v>
       </c>
@@ -8138,11 +8096,11 @@
         <v>635</v>
       </c>
       <c r="AE37" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF37" s="97"/>
     </row>
-    <row r="38" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" ht="87.75" customHeight="1">
       <c r="A38" s="102">
         <v>31</v>
       </c>
@@ -8240,11 +8198,11 @@
         <v>645</v>
       </c>
       <c r="AE38" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF38" s="97"/>
     </row>
-    <row r="39" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" ht="87.75" customHeight="1">
       <c r="A39" s="102">
         <v>32</v>
       </c>
@@ -8342,11 +8300,11 @@
         <v>732</v>
       </c>
       <c r="AE39" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF39" s="97"/>
     </row>
-    <row r="40" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" ht="87.75" customHeight="1">
       <c r="A40" s="102">
         <v>33</v>
       </c>
@@ -8444,11 +8402,11 @@
         <v>685</v>
       </c>
       <c r="AE40" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF40" s="97"/>
     </row>
-    <row r="41" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" ht="87.75" customHeight="1">
       <c r="A41" s="102">
         <v>34</v>
       </c>
@@ -8546,11 +8504,11 @@
         <v>740</v>
       </c>
       <c r="AE41" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF41" s="97"/>
     </row>
-    <row r="42" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" ht="87.75" customHeight="1">
       <c r="A42" s="102">
         <v>35</v>
       </c>
@@ -8648,11 +8606,11 @@
         <v>730</v>
       </c>
       <c r="AE42" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF42" s="97"/>
     </row>
-    <row r="43" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" ht="87.75" customHeight="1">
       <c r="A43" s="102">
         <v>36</v>
       </c>
@@ -8750,11 +8708,11 @@
         <v>754</v>
       </c>
       <c r="AE43" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF43" s="97"/>
     </row>
-    <row r="44" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" ht="87.75" customHeight="1">
       <c r="A44" s="102">
         <v>37</v>
       </c>
@@ -8852,11 +8810,11 @@
         <v>675</v>
       </c>
       <c r="AE44" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF44" s="97"/>
     </row>
-    <row r="45" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" ht="87.75" customHeight="1">
       <c r="A45" s="102">
         <v>38</v>
       </c>
@@ -8954,11 +8912,11 @@
         <v>643</v>
       </c>
       <c r="AE45" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF45" s="97"/>
     </row>
-    <row r="46" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" ht="87.75" customHeight="1">
       <c r="A46" s="102">
         <v>39</v>
       </c>
@@ -9056,11 +9014,11 @@
         <v>672</v>
       </c>
       <c r="AE46" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF46" s="97"/>
     </row>
-    <row r="47" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" ht="87.75" customHeight="1">
       <c r="A47" s="102">
         <v>40</v>
       </c>
@@ -9158,11 +9116,11 @@
         <v>467</v>
       </c>
       <c r="AE47" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF47" s="97"/>
     </row>
-    <row r="48" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" ht="87.75" customHeight="1">
       <c r="A48" s="102">
         <v>41</v>
       </c>
@@ -9260,11 +9218,11 @@
         <v>689</v>
       </c>
       <c r="AE48" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF48" s="97"/>
     </row>
-    <row r="49" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" ht="87.75" customHeight="1">
       <c r="A49" s="102">
         <v>42</v>
       </c>
@@ -9362,11 +9320,11 @@
         <v>755</v>
       </c>
       <c r="AE49" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF49" s="97"/>
     </row>
-    <row r="50" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" ht="87.75" customHeight="1">
       <c r="A50" s="102">
         <v>43</v>
       </c>
@@ -9464,11 +9422,11 @@
         <v>743</v>
       </c>
       <c r="AE50" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF50" s="97"/>
     </row>
-    <row r="51" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:32" ht="87.75" customHeight="1">
       <c r="A51" s="102">
         <v>44</v>
       </c>
@@ -9566,11 +9524,11 @@
         <v>677</v>
       </c>
       <c r="AE51" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF51" s="97"/>
     </row>
-    <row r="52" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:32" ht="87.75" customHeight="1">
       <c r="A52" s="102">
         <v>45</v>
       </c>
@@ -9668,11 +9626,11 @@
         <v>640</v>
       </c>
       <c r="AE52" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF52" s="97"/>
     </row>
-    <row r="53" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:32" ht="87.75" customHeight="1">
       <c r="A53" s="102">
         <v>46</v>
       </c>
@@ -9770,11 +9728,11 @@
         <v>659</v>
       </c>
       <c r="AE53" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF53" s="97"/>
     </row>
-    <row r="54" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:32" ht="87.75" customHeight="1">
       <c r="A54" s="102">
         <v>47</v>
       </c>
@@ -9872,11 +9830,11 @@
         <v>678</v>
       </c>
       <c r="AE54" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF54" s="97"/>
     </row>
-    <row r="55" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:32" ht="87.75" customHeight="1">
       <c r="A55" s="102">
         <v>48</v>
       </c>
@@ -9974,11 +9932,11 @@
         <v>695</v>
       </c>
       <c r="AE55" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF55" s="97"/>
     </row>
-    <row r="56" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" ht="87.75" customHeight="1">
       <c r="A56" s="102">
         <v>49</v>
       </c>
@@ -10076,11 +10034,11 @@
         <v>672</v>
       </c>
       <c r="AE56" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF56" s="97"/>
     </row>
-    <row r="57" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" ht="87.75" customHeight="1">
       <c r="A57" s="102">
         <v>50</v>
       </c>
@@ -10178,11 +10136,11 @@
         <v>733</v>
       </c>
       <c r="AE57" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF57" s="97"/>
     </row>
-    <row r="58" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" ht="87.75" customHeight="1">
       <c r="A58" s="102">
         <v>51</v>
       </c>
@@ -10280,11 +10238,11 @@
         <v>748</v>
       </c>
       <c r="AE58" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF58" s="97"/>
     </row>
-    <row r="59" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" ht="87.75" customHeight="1">
       <c r="A59" s="102">
         <v>52</v>
       </c>
@@ -10382,11 +10340,11 @@
         <v>748</v>
       </c>
       <c r="AE59" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF59" s="114"/>
     </row>
-    <row r="60" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" ht="87.75" customHeight="1">
       <c r="A60" s="102">
         <v>53</v>
       </c>
@@ -10484,11 +10442,11 @@
         <v>747</v>
       </c>
       <c r="AE60" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF60" s="97"/>
     </row>
-    <row r="61" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" ht="87.75" customHeight="1">
       <c r="A61" s="102">
         <v>54</v>
       </c>
@@ -10586,11 +10544,11 @@
         <v>637</v>
       </c>
       <c r="AE61" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF61" s="97"/>
     </row>
-    <row r="62" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" ht="87.75" customHeight="1">
       <c r="A62" s="102">
         <v>55</v>
       </c>
@@ -10688,11 +10646,11 @@
         <v>682</v>
       </c>
       <c r="AE62" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF62" s="97"/>
     </row>
-    <row r="63" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" ht="87.75" customHeight="1">
       <c r="A63" s="102">
         <v>56</v>
       </c>
@@ -10790,11 +10748,11 @@
         <v>747</v>
       </c>
       <c r="AE63" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF63" s="97"/>
     </row>
-    <row r="64" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" ht="87.75" customHeight="1">
       <c r="A64" s="102">
         <v>57</v>
       </c>
@@ -10892,11 +10850,11 @@
         <v>732</v>
       </c>
       <c r="AE64" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF64" s="102"/>
     </row>
-    <row r="65" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:32" ht="87.75" customHeight="1">
       <c r="A65" s="102">
         <v>58</v>
       </c>
@@ -10994,11 +10952,11 @@
         <v>702</v>
       </c>
       <c r="AE65" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF65" s="117"/>
     </row>
-    <row r="66" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" ht="87.75" customHeight="1">
       <c r="A66" s="102">
         <v>59</v>
       </c>
@@ -11096,11 +11054,11 @@
         <v>693</v>
       </c>
       <c r="AE66" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF66" s="102"/>
     </row>
-    <row r="67" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" ht="87.75" customHeight="1">
       <c r="A67" s="102">
         <v>60</v>
       </c>
@@ -11198,11 +11156,11 @@
         <v>688</v>
       </c>
       <c r="AE67" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF67" s="97"/>
     </row>
-    <row r="68" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" ht="87.75" customHeight="1">
       <c r="A68" s="102">
         <v>61</v>
       </c>
@@ -11300,11 +11258,11 @@
         <v>675</v>
       </c>
       <c r="AE68" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF68" s="102"/>
     </row>
-    <row r="69" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:32" ht="87.75" customHeight="1">
       <c r="A69" s="102">
         <v>62</v>
       </c>
@@ -11402,11 +11360,11 @@
         <v>670</v>
       </c>
       <c r="AE69" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF69" s="102"/>
     </row>
-    <row r="70" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:32" ht="87.75" customHeight="1">
       <c r="A70" s="102">
         <v>63</v>
       </c>
@@ -11504,11 +11462,11 @@
         <v>736</v>
       </c>
       <c r="AE70" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF70" s="102"/>
     </row>
-    <row r="71" spans="1:32" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:32" ht="87.75" customHeight="1">
       <c r="A71" s="102">
         <v>64</v>
       </c>
@@ -11606,17 +11564,12 @@
         <v>744</v>
       </c>
       <c r="AE71" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF71" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="A3:AF3"/>
     <mergeCell ref="A2:AF2"/>
@@ -11628,6 +11581,11 @@
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="Q4:S4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="Y8:Y71 V8:V71 AB8:AB71">
@@ -11679,195 +11637,195 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF53"/>
   <sheetViews>
     <sheetView topLeftCell="B10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:IV15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.85546875" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="6.88671875" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="3" width="31.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1"/>
-    <col min="6" max="6" width="45.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="28" width="8.7109375" customWidth="1"/>
-    <col min="29" max="29" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="3" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" customWidth="1"/>
+    <col min="5" max="5" width="36.33203125" customWidth="1"/>
+    <col min="6" max="6" width="45.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="28" width="8.6640625" customWidth="1"/>
+    <col min="29" max="29" width="19.109375" customWidth="1"/>
     <col min="30" max="30" width="18" customWidth="1"/>
-    <col min="31" max="31" width="28.140625" customWidth="1"/>
-    <col min="32" max="32" width="33.5703125" customWidth="1"/>
+    <col min="31" max="31" width="28.109375" customWidth="1"/>
+    <col min="32" max="32" width="33.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="39" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="175" t="s">
+    <row r="1" spans="1:32" s="39" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A1" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="175"/>
-      <c r="R1" s="175"/>
-      <c r="S1" s="175"/>
-      <c r="T1" s="175"/>
-      <c r="U1" s="175"/>
-      <c r="V1" s="175"/>
-      <c r="W1" s="175"/>
-      <c r="X1" s="175"/>
-      <c r="Y1" s="175"/>
-      <c r="Z1" s="175"/>
-      <c r="AA1" s="175"/>
-      <c r="AB1" s="175"/>
-      <c r="AC1" s="175"/>
-      <c r="AD1" s="175"/>
-      <c r="AE1" s="175"/>
-      <c r="AF1" s="175"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="173"/>
+      <c r="AB1" s="173"/>
+      <c r="AC1" s="173"/>
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="173"/>
     </row>
-    <row r="2" spans="1:32" s="39" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="175" t="s">
+    <row r="2" spans="1:32" s="39" customFormat="1" ht="66.75" customHeight="1">
+      <c r="A2" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="175"/>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="175"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="173"/>
+      <c r="AA2" s="173"/>
+      <c r="AB2" s="173"/>
+      <c r="AC2" s="173"/>
+      <c r="AD2" s="173"/>
+      <c r="AE2" s="173"/>
+      <c r="AF2" s="173"/>
     </row>
-    <row r="3" spans="1:32" s="39" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="176" t="s">
-        <v>770</v>
-      </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="176"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="176"/>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="176"/>
-      <c r="S3" s="176"/>
-      <c r="T3" s="176"/>
-      <c r="U3" s="176"/>
-      <c r="V3" s="176"/>
-      <c r="W3" s="176"/>
-      <c r="X3" s="176"/>
-      <c r="Y3" s="176"/>
-      <c r="Z3" s="176"/>
-      <c r="AA3" s="176"/>
-      <c r="AB3" s="176"/>
-      <c r="AC3" s="176"/>
-      <c r="AD3" s="176"/>
-      <c r="AE3" s="176"/>
-      <c r="AF3" s="176"/>
+    <row r="3" spans="1:32" s="39" customFormat="1" ht="66.75" customHeight="1">
+      <c r="A3" s="174" t="s">
+        <v>769</v>
+      </c>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="174"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="174"/>
+      <c r="AD3" s="174"/>
+      <c r="AE3" s="174"/>
+      <c r="AF3" s="174"/>
     </row>
-    <row r="4" spans="1:32" ht="162.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="165" t="s">
+    <row r="4" spans="1:32" ht="162.75" customHeight="1">
+      <c r="A4" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="165" t="s">
+      <c r="D4" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="167" t="s">
+      <c r="E4" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="167" t="s">
+      <c r="F4" s="168" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="169" t="s">
+      <c r="H4" s="163" t="s">
+        <v>781</v>
+      </c>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163" t="s">
+        <v>793</v>
+      </c>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163" t="s">
         <v>782</v>
       </c>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169" t="s">
-        <v>794</v>
-      </c>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169" t="s">
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="170" t="s">
         <v>783</v>
       </c>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="172" t="s">
+      <c r="R4" s="171"/>
+      <c r="S4" s="172"/>
+      <c r="T4" s="163" t="s">
         <v>784</v>
       </c>
-      <c r="R4" s="173"/>
-      <c r="S4" s="174"/>
-      <c r="T4" s="169" t="s">
+      <c r="U4" s="163"/>
+      <c r="V4" s="163"/>
+      <c r="W4" s="170" t="s">
+        <v>795</v>
+      </c>
+      <c r="X4" s="171"/>
+      <c r="Y4" s="172"/>
+      <c r="Z4" s="163" t="s">
         <v>785</v>
       </c>
-      <c r="U4" s="169"/>
-      <c r="V4" s="169"/>
-      <c r="W4" s="172" t="s">
-        <v>796</v>
-      </c>
-      <c r="X4" s="173"/>
-      <c r="Y4" s="174"/>
-      <c r="Z4" s="169" t="s">
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="163"/>
+      <c r="AC4" s="153" t="s">
         <v>786</v>
-      </c>
-      <c r="AA4" s="169"/>
-      <c r="AB4" s="169"/>
-      <c r="AC4" s="153" t="s">
-        <v>787</v>
       </c>
       <c r="AD4" s="122" t="s">
         <v>10</v>
@@ -11879,13 +11837,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="165"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
+    <row r="5" spans="1:32" ht="47.25" customHeight="1">
+      <c r="A5" s="164"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
       <c r="G5" s="26"/>
       <c r="H5" s="36" t="s">
         <v>6</v>
@@ -11955,13 +11913,13 @@
       <c r="AE5" s="18"/>
       <c r="AF5" s="18"/>
     </row>
-    <row r="6" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="165"/>
-      <c r="B6" s="165"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
+    <row r="6" spans="1:32" ht="47.25" customHeight="1">
+      <c r="A6" s="164"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
       <c r="G6" s="41" t="s">
         <v>2</v>
       </c>
@@ -12045,13 +12003,13 @@
       <c r="AE6" s="20"/>
       <c r="AF6" s="74"/>
     </row>
-    <row r="7" spans="1:32" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="166"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
+    <row r="7" spans="1:32" ht="47.25" customHeight="1">
+      <c r="A7" s="165"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
       <c r="G7" s="42" t="s">
         <v>3</v>
       </c>
@@ -12111,7 +12069,7 @@
       <c r="AE7" s="23"/>
       <c r="AF7" s="75"/>
     </row>
-    <row r="8" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="77.25" customHeight="1">
       <c r="A8" s="102">
         <v>1</v>
       </c>
@@ -12209,11 +12167,11 @@
         <v>661</v>
       </c>
       <c r="AE8" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF8" s="97"/>
     </row>
-    <row r="9" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="77.25" customHeight="1">
       <c r="A9" s="102">
         <v>2</v>
       </c>
@@ -12311,11 +12269,11 @@
         <v>806</v>
       </c>
       <c r="AE9" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF9" s="97"/>
     </row>
-    <row r="10" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="77.25" customHeight="1">
       <c r="A10" s="102">
         <v>3</v>
       </c>
@@ -12413,11 +12371,11 @@
         <v>660</v>
       </c>
       <c r="AE10" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF10" s="97"/>
     </row>
-    <row r="11" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="77.25" customHeight="1">
       <c r="A11" s="102">
         <v>4</v>
       </c>
@@ -12515,11 +12473,11 @@
         <v>838</v>
       </c>
       <c r="AE11" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF11" s="97"/>
     </row>
-    <row r="12" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="77.25" customHeight="1">
       <c r="A12" s="102">
         <v>5</v>
       </c>
@@ -12617,11 +12575,11 @@
         <v>701</v>
       </c>
       <c r="AE12" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF12" s="97"/>
     </row>
-    <row r="13" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="77.25" customHeight="1">
       <c r="A13" s="102">
         <v>6</v>
       </c>
@@ -12719,11 +12677,11 @@
         <v>687</v>
       </c>
       <c r="AE13" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF13" s="97"/>
     </row>
-    <row r="14" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="77.25" customHeight="1">
       <c r="A14" s="102">
         <v>7</v>
       </c>
@@ -12821,11 +12779,11 @@
         <v>812</v>
       </c>
       <c r="AE14" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF14" s="97"/>
     </row>
-    <row r="15" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="77.25" customHeight="1">
       <c r="A15" s="102">
         <v>8</v>
       </c>
@@ -12923,11 +12881,11 @@
         <v>815</v>
       </c>
       <c r="AE15" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF15" s="97"/>
     </row>
-    <row r="16" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="77.25" customHeight="1">
       <c r="A16" s="102">
         <v>9</v>
       </c>
@@ -13025,11 +12983,11 @@
         <v>794</v>
       </c>
       <c r="AE16" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF16" s="97"/>
     </row>
-    <row r="17" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="77.25" customHeight="1">
       <c r="A17" s="102">
         <v>10</v>
       </c>
@@ -13127,11 +13085,11 @@
         <v>731</v>
       </c>
       <c r="AE17" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF17" s="97"/>
     </row>
-    <row r="18" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="77.25" customHeight="1">
       <c r="A18" s="102">
         <v>11</v>
       </c>
@@ -13229,11 +13187,11 @@
         <v>789</v>
       </c>
       <c r="AE18" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF18" s="97"/>
     </row>
-    <row r="19" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="77.25" customHeight="1">
       <c r="A19" s="102">
         <v>12</v>
       </c>
@@ -13331,11 +13289,11 @@
         <v>782</v>
       </c>
       <c r="AE19" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF19" s="97"/>
     </row>
-    <row r="20" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="77.25" customHeight="1">
       <c r="A20" s="102">
         <v>13</v>
       </c>
@@ -13433,11 +13391,11 @@
         <v>823</v>
       </c>
       <c r="AE20" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF20" s="97"/>
     </row>
-    <row r="21" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="77.25" customHeight="1">
       <c r="A21" s="102">
         <v>14</v>
       </c>
@@ -13535,11 +13493,11 @@
         <v>701</v>
       </c>
       <c r="AE21" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF21" s="97"/>
     </row>
-    <row r="22" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="77.25" customHeight="1">
       <c r="A22" s="102">
         <v>15</v>
       </c>
@@ -13637,11 +13595,11 @@
         <v>821</v>
       </c>
       <c r="AE22" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF22" s="97"/>
     </row>
-    <row r="23" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="77.25" customHeight="1">
       <c r="A23" s="102">
         <v>16</v>
       </c>
@@ -13739,11 +13697,11 @@
         <v>674</v>
       </c>
       <c r="AE23" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF23" s="97"/>
     </row>
-    <row r="24" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="77.25" customHeight="1">
       <c r="A24" s="102">
         <v>17</v>
       </c>
@@ -13841,11 +13799,11 @@
         <v>727</v>
       </c>
       <c r="AE24" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF24" s="97"/>
     </row>
-    <row r="25" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" ht="77.25" customHeight="1">
       <c r="A25" s="102">
         <v>18</v>
       </c>
@@ -13943,11 +13901,11 @@
         <v>787</v>
       </c>
       <c r="AE25" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF25" s="97"/>
     </row>
-    <row r="26" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="77.25" customHeight="1">
       <c r="A26" s="102">
         <v>19</v>
       </c>
@@ -14045,11 +14003,11 @@
         <v>647</v>
       </c>
       <c r="AE26" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF26" s="97"/>
     </row>
-    <row r="27" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" ht="77.25" customHeight="1">
       <c r="A27" s="102">
         <v>20</v>
       </c>
@@ -14147,11 +14105,11 @@
         <v>794</v>
       </c>
       <c r="AE27" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF27" s="97"/>
     </row>
-    <row r="28" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" ht="77.25" customHeight="1">
       <c r="A28" s="102">
         <v>21</v>
       </c>
@@ -14249,11 +14207,11 @@
         <v>833</v>
       </c>
       <c r="AE28" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF28" s="97"/>
     </row>
-    <row r="29" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" ht="77.25" customHeight="1">
       <c r="A29" s="102">
         <v>22</v>
       </c>
@@ -14351,11 +14309,11 @@
         <v>712</v>
       </c>
       <c r="AE29" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF29" s="97"/>
     </row>
-    <row r="30" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" ht="77.25" customHeight="1">
       <c r="A30" s="102">
         <v>23</v>
       </c>
@@ -14453,11 +14411,11 @@
         <v>744</v>
       </c>
       <c r="AE30" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF30" s="97"/>
     </row>
-    <row r="31" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" ht="77.25" customHeight="1">
       <c r="A31" s="102">
         <v>24</v>
       </c>
@@ -14555,11 +14513,11 @@
         <v>806</v>
       </c>
       <c r="AE31" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF31" s="97"/>
     </row>
-    <row r="32" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" ht="77.25" customHeight="1">
       <c r="A32" s="102">
         <v>25</v>
       </c>
@@ -14657,11 +14615,11 @@
         <v>866</v>
       </c>
       <c r="AE32" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF32" s="97"/>
     </row>
-    <row r="33" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" ht="77.25" customHeight="1">
       <c r="A33" s="102">
         <v>26</v>
       </c>
@@ -14759,11 +14717,11 @@
         <v>735</v>
       </c>
       <c r="AE33" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF33" s="97"/>
     </row>
-    <row r="34" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" ht="77.25" customHeight="1">
       <c r="A34" s="102">
         <v>27</v>
       </c>
@@ -14861,11 +14819,11 @@
         <v>713</v>
       </c>
       <c r="AE34" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF34" s="97"/>
     </row>
-    <row r="35" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" ht="77.25" customHeight="1">
       <c r="A35" s="102">
         <v>28</v>
       </c>
@@ -14963,11 +14921,11 @@
         <v>625</v>
       </c>
       <c r="AE35" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF35" s="97"/>
     </row>
-    <row r="36" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" ht="77.25" customHeight="1">
       <c r="A36" s="102">
         <v>29</v>
       </c>
@@ -15065,11 +15023,11 @@
         <v>803</v>
       </c>
       <c r="AE36" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF36" s="97"/>
     </row>
-    <row r="37" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" ht="77.25" customHeight="1">
       <c r="A37" s="102">
         <v>30</v>
       </c>
@@ -15167,11 +15125,11 @@
         <v>830</v>
       </c>
       <c r="AE37" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF37" s="97"/>
     </row>
-    <row r="38" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" ht="77.25" customHeight="1">
       <c r="A38" s="102">
         <v>31</v>
       </c>
@@ -15269,11 +15227,11 @@
         <v>820</v>
       </c>
       <c r="AE38" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF38" s="97"/>
     </row>
-    <row r="39" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" ht="77.25" customHeight="1">
       <c r="A39" s="102">
         <v>32</v>
       </c>
@@ -15371,11 +15329,11 @@
         <v>684</v>
       </c>
       <c r="AE39" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF39" s="97"/>
     </row>
-    <row r="40" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" ht="77.25" customHeight="1">
       <c r="A40" s="102">
         <v>33</v>
       </c>
@@ -15473,11 +15431,11 @@
         <v>627</v>
       </c>
       <c r="AE40" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF40" s="97"/>
     </row>
-    <row r="41" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" ht="77.25" customHeight="1">
       <c r="A41" s="102">
         <v>34</v>
       </c>
@@ -15575,11 +15533,11 @@
         <v>742</v>
       </c>
       <c r="AE41" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF41" s="97"/>
     </row>
-    <row r="42" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" ht="77.25" customHeight="1">
       <c r="A42" s="102">
         <v>35</v>
       </c>
@@ -15677,11 +15635,11 @@
         <v>567</v>
       </c>
       <c r="AE42" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF42" s="97"/>
     </row>
-    <row r="43" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" ht="77.25" customHeight="1">
       <c r="A43" s="102">
         <v>36</v>
       </c>
@@ -15779,11 +15737,11 @@
         <v>849</v>
       </c>
       <c r="AE43" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF43" s="97"/>
     </row>
-    <row r="44" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" ht="77.25" customHeight="1">
       <c r="A44" s="102">
         <v>37</v>
       </c>
@@ -15881,11 +15839,11 @@
         <v>841</v>
       </c>
       <c r="AE44" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF44" s="97"/>
     </row>
-    <row r="45" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" ht="77.25" customHeight="1">
       <c r="A45" s="102">
         <v>38</v>
       </c>
@@ -15983,11 +15941,11 @@
         <v>687</v>
       </c>
       <c r="AE45" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF45" s="97"/>
     </row>
-    <row r="46" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" ht="77.25" customHeight="1">
       <c r="A46" s="102">
         <v>39</v>
       </c>
@@ -16085,11 +16043,11 @@
         <v>697</v>
       </c>
       <c r="AE46" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF46" s="97"/>
     </row>
-    <row r="47" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" ht="77.25" customHeight="1">
       <c r="A47" s="102">
         <v>40</v>
       </c>
@@ -16187,11 +16145,11 @@
         <v>733</v>
       </c>
       <c r="AE47" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF47" s="97"/>
     </row>
-    <row r="48" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" ht="77.25" customHeight="1">
       <c r="A48" s="102">
         <v>41</v>
       </c>
@@ -16289,11 +16247,11 @@
         <v>742</v>
       </c>
       <c r="AE48" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF48" s="97"/>
     </row>
-    <row r="49" spans="1:32" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" ht="77.25" customHeight="1">
       <c r="A49" s="102">
         <v>42</v>
       </c>
@@ -16391,11 +16349,11 @@
         <v>766</v>
       </c>
       <c r="AE49" s="108" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF49" s="97"/>
     </row>
-    <row r="50" spans="1:32" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:32" ht="22.5" customHeight="1">
       <c r="G50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
@@ -16412,15 +16370,21 @@
       <c r="AE50" s="8"/>
       <c r="AF50" s="8"/>
     </row>
-    <row r="53" spans="1:32" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="170"/>
-      <c r="C53" s="171"/>
-      <c r="D53" s="171"/>
-      <c r="E53" s="171"/>
-      <c r="F53" s="171"/>
+    <row r="53" spans="1:32" ht="34.5" customHeight="1">
+      <c r="B53" s="175"/>
+      <c r="C53" s="176"/>
+      <c r="D53" s="176"/>
+      <c r="E53" s="176"/>
+      <c r="F53" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="H4:J4"/>
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="W4:Y4"/>
@@ -16431,13 +16395,7 @@
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="F4:F7"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="T4:V4"/>
-    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <conditionalFormatting sqref="Q8:Q49">
     <cfRule type="cellIs" dxfId="67" priority="25" stopIfTrue="1" operator="lessThan">
@@ -16499,202 +16457,202 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG55"/>
   <sheetViews>
     <sheetView topLeftCell="E4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:IV12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.42578125" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="6.44140625" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="15" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="15" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="15" customWidth="1"/>
-    <col min="5" max="5" width="48.28515625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" style="15" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="15" customWidth="1"/>
-    <col min="8" max="11" width="9.28515625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="40" customWidth="1"/>
-    <col min="13" max="15" width="9.28515625" style="15" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" style="15" customWidth="1"/>
-    <col min="17" max="28" width="9.28515625" style="15" customWidth="1"/>
-    <col min="29" max="29" width="13.85546875" style="15" customWidth="1"/>
-    <col min="30" max="30" width="16.42578125" style="15" customWidth="1"/>
-    <col min="31" max="31" width="22.42578125" style="15" customWidth="1"/>
-    <col min="32" max="32" width="32.28515625" style="15" customWidth="1"/>
-    <col min="33" max="33" width="21.5703125" style="15" customWidth="1"/>
-    <col min="34" max="16384" width="6.42578125" style="15"/>
+    <col min="1" max="1" width="13.88671875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" style="15" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" style="15" customWidth="1"/>
+    <col min="5" max="5" width="48.33203125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="15" customWidth="1"/>
+    <col min="8" max="11" width="9.33203125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="40" customWidth="1"/>
+    <col min="13" max="15" width="9.33203125" style="15" customWidth="1"/>
+    <col min="16" max="16" width="12.88671875" style="15" customWidth="1"/>
+    <col min="17" max="28" width="9.33203125" style="15" customWidth="1"/>
+    <col min="29" max="29" width="13.88671875" style="15" customWidth="1"/>
+    <col min="30" max="30" width="16.44140625" style="15" customWidth="1"/>
+    <col min="31" max="31" width="22.44140625" style="15" customWidth="1"/>
+    <col min="32" max="32" width="32.33203125" style="15" customWidth="1"/>
+    <col min="33" max="33" width="21.5546875" style="15" customWidth="1"/>
+    <col min="34" max="16384" width="6.44140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="175" t="s">
+    <row r="1" spans="1:33" ht="57" customHeight="1">
+      <c r="A1" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="175"/>
-      <c r="R1" s="175"/>
-      <c r="S1" s="175"/>
-      <c r="T1" s="175"/>
-      <c r="U1" s="175"/>
-      <c r="V1" s="175"/>
-      <c r="W1" s="175"/>
-      <c r="X1" s="175"/>
-      <c r="Y1" s="175"/>
-      <c r="Z1" s="175"/>
-      <c r="AA1" s="175"/>
-      <c r="AB1" s="175"/>
-      <c r="AC1" s="175"/>
-      <c r="AD1" s="175"/>
-      <c r="AE1" s="175"/>
-      <c r="AF1" s="175"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="173"/>
+      <c r="AB1" s="173"/>
+      <c r="AC1" s="173"/>
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="173"/>
     </row>
-    <row r="2" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="175" t="s">
+    <row r="2" spans="1:33" ht="57" customHeight="1">
+      <c r="A2" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="175"/>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="175"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="173"/>
+      <c r="AA2" s="173"/>
+      <c r="AB2" s="173"/>
+      <c r="AC2" s="173"/>
+      <c r="AD2" s="173"/>
+      <c r="AE2" s="173"/>
+      <c r="AF2" s="173"/>
     </row>
-    <row r="3" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="176" t="s">
-        <v>771</v>
-      </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="176"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="176"/>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="176"/>
-      <c r="S3" s="176"/>
-      <c r="T3" s="176"/>
-      <c r="U3" s="176"/>
-      <c r="V3" s="176"/>
-      <c r="W3" s="176"/>
-      <c r="X3" s="176"/>
-      <c r="Y3" s="176"/>
-      <c r="Z3" s="176"/>
-      <c r="AA3" s="176"/>
-      <c r="AB3" s="176"/>
-      <c r="AC3" s="176"/>
-      <c r="AD3" s="176"/>
-      <c r="AE3" s="176"/>
-      <c r="AF3" s="176"/>
+    <row r="3" spans="1:33" ht="57" customHeight="1">
+      <c r="A3" s="174" t="s">
+        <v>770</v>
+      </c>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="174"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="174"/>
+      <c r="AD3" s="174"/>
+      <c r="AE3" s="174"/>
+      <c r="AF3" s="174"/>
     </row>
-    <row r="4" spans="1:33" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="165" t="s">
+    <row r="4" spans="1:33" ht="145.5" customHeight="1">
+      <c r="A4" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="165" t="s">
+      <c r="D4" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="167" t="s">
+      <c r="E4" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="167" t="s">
+      <c r="F4" s="168" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="169" t="s">
+      <c r="H4" s="163" t="s">
+        <v>773</v>
+      </c>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163" t="s">
+        <v>793</v>
+      </c>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163" t="s">
         <v>774</v>
       </c>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169" t="s">
-        <v>794</v>
-      </c>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169" t="s">
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="163" t="s">
         <v>775</v>
       </c>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="169" t="s">
+      <c r="R4" s="163"/>
+      <c r="S4" s="163"/>
+      <c r="T4" s="163" t="s">
         <v>776</v>
       </c>
-      <c r="R4" s="169"/>
-      <c r="S4" s="169"/>
-      <c r="T4" s="169" t="s">
+      <c r="U4" s="163"/>
+      <c r="V4" s="163"/>
+      <c r="W4" s="163" t="s">
         <v>777</v>
       </c>
-      <c r="U4" s="169"/>
-      <c r="V4" s="169"/>
-      <c r="W4" s="169" t="s">
+      <c r="X4" s="163"/>
+      <c r="Y4" s="163"/>
+      <c r="Z4" s="163" t="s">
         <v>778</v>
       </c>
-      <c r="X4" s="169"/>
-      <c r="Y4" s="169"/>
-      <c r="Z4" s="169" t="s">
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="163"/>
+      <c r="AC4" s="152" t="s">
         <v>779</v>
-      </c>
-      <c r="AA4" s="169"/>
-      <c r="AB4" s="169"/>
-      <c r="AC4" s="152" t="s">
-        <v>780</v>
       </c>
       <c r="AD4" s="152" t="s">
         <v>10</v>
@@ -16706,13 +16664,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="165"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
+    <row r="5" spans="1:33" ht="39.75" customHeight="1">
+      <c r="A5" s="164"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
       <c r="G5" s="41"/>
       <c r="H5" s="7" t="s">
         <v>6</v>
@@ -16782,13 +16740,13 @@
       <c r="AE5" s="18"/>
       <c r="AF5" s="18"/>
     </row>
-    <row r="6" spans="1:33" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="165"/>
-      <c r="B6" s="165"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
+    <row r="6" spans="1:33" ht="39.75" customHeight="1">
+      <c r="A6" s="164"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
       <c r="G6" s="41" t="s">
         <v>2</v>
       </c>
@@ -16871,13 +16829,13 @@
       <c r="AE6" s="20"/>
       <c r="AF6" s="20"/>
     </row>
-    <row r="7" spans="1:33" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="166"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
+    <row r="7" spans="1:33" ht="39.75" customHeight="1">
+      <c r="A7" s="165"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
       <c r="G7" s="42" t="s">
         <v>3</v>
       </c>
@@ -16937,7 +16895,7 @@
       <c r="AE7" s="23"/>
       <c r="AF7" s="23"/>
     </row>
-    <row r="8" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" ht="81" customHeight="1">
       <c r="A8" s="114">
         <v>1</v>
       </c>
@@ -16954,7 +16912,7 @@
         <v>330</v>
       </c>
       <c r="F8" s="90" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G8" s="129"/>
       <c r="H8" s="56">
@@ -17035,12 +16993,12 @@
         <v>664</v>
       </c>
       <c r="AE8" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF8" s="47"/>
       <c r="AG8" s="77"/>
     </row>
-    <row r="9" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" ht="81" customHeight="1">
       <c r="A9" s="114">
         <v>2</v>
       </c>
@@ -17138,12 +17096,12 @@
         <v>690</v>
       </c>
       <c r="AE9" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF9" s="47"/>
       <c r="AG9" s="77"/>
     </row>
-    <row r="10" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" ht="81" customHeight="1">
       <c r="A10" s="114">
         <v>3</v>
       </c>
@@ -17241,12 +17199,12 @@
         <v>654</v>
       </c>
       <c r="AE10" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF10" s="47"/>
       <c r="AG10" s="77"/>
     </row>
-    <row r="11" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" ht="81" customHeight="1">
       <c r="A11" s="114">
         <v>4</v>
       </c>
@@ -17344,12 +17302,12 @@
         <v>752</v>
       </c>
       <c r="AE11" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF11" s="47"/>
       <c r="AG11" s="77"/>
     </row>
-    <row r="12" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" ht="81" customHeight="1">
       <c r="A12" s="114">
         <v>5</v>
       </c>
@@ -17447,12 +17405,12 @@
         <v>695</v>
       </c>
       <c r="AE12" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF12" s="47"/>
       <c r="AG12" s="77"/>
     </row>
-    <row r="13" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="81" customHeight="1">
       <c r="A13" s="114">
         <v>6</v>
       </c>
@@ -17550,12 +17508,12 @@
         <v>626</v>
       </c>
       <c r="AE13" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF13" s="47"/>
       <c r="AG13" s="77"/>
     </row>
-    <row r="14" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="81" customHeight="1">
       <c r="A14" s="114">
         <v>7</v>
       </c>
@@ -17653,12 +17611,12 @@
         <v>714</v>
       </c>
       <c r="AE14" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF14" s="47"/>
       <c r="AG14" s="77"/>
     </row>
-    <row r="15" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="81" customHeight="1">
       <c r="A15" s="114">
         <v>8</v>
       </c>
@@ -17756,12 +17714,12 @@
         <v>716</v>
       </c>
       <c r="AE15" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF15" s="47"/>
       <c r="AG15" s="77"/>
     </row>
-    <row r="16" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="81" customHeight="1">
       <c r="A16" s="114">
         <v>9</v>
       </c>
@@ -17859,12 +17817,12 @@
         <v>632</v>
       </c>
       <c r="AE16" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF16" s="47"/>
       <c r="AG16" s="77"/>
     </row>
-    <row r="17" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:33" ht="81" customHeight="1">
       <c r="A17" s="114">
         <v>10</v>
       </c>
@@ -17962,12 +17920,12 @@
         <v>694</v>
       </c>
       <c r="AE17" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF17" s="47"/>
       <c r="AG17" s="77"/>
     </row>
-    <row r="18" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:33" ht="81" customHeight="1">
       <c r="A18" s="114">
         <v>11</v>
       </c>
@@ -18065,12 +18023,12 @@
         <v>754</v>
       </c>
       <c r="AE18" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF18" s="47"/>
       <c r="AG18" s="77"/>
     </row>
-    <row r="19" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:33" ht="81" customHeight="1">
       <c r="A19" s="114">
         <v>12</v>
       </c>
@@ -18168,12 +18126,12 @@
         <v>708</v>
       </c>
       <c r="AE19" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF19" s="47"/>
       <c r="AG19" s="77"/>
     </row>
-    <row r="20" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:33" ht="81" customHeight="1">
       <c r="A20" s="114">
         <v>13</v>
       </c>
@@ -18271,12 +18229,12 @@
         <v>661</v>
       </c>
       <c r="AE20" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF20" s="47"/>
       <c r="AG20" s="77"/>
     </row>
-    <row r="21" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:33" ht="81" customHeight="1">
       <c r="A21" s="114">
         <v>14</v>
       </c>
@@ -18374,12 +18332,12 @@
         <v>601</v>
       </c>
       <c r="AE21" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF21" s="47"/>
       <c r="AG21" s="77"/>
     </row>
-    <row r="22" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:33" ht="81" customHeight="1">
       <c r="A22" s="114">
         <v>15</v>
       </c>
@@ -18477,12 +18435,12 @@
         <v>668</v>
       </c>
       <c r="AE22" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF22" s="47"/>
       <c r="AG22" s="77"/>
     </row>
-    <row r="23" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:33" ht="81" customHeight="1">
       <c r="A23" s="114">
         <v>16</v>
       </c>
@@ -18580,12 +18538,12 @@
         <v>711</v>
       </c>
       <c r="AE23" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF23" s="47"/>
       <c r="AG23" s="77"/>
     </row>
-    <row r="24" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:33" ht="81" customHeight="1">
       <c r="A24" s="114">
         <v>17</v>
       </c>
@@ -18636,7 +18594,7 @@
         <v>169</v>
       </c>
       <c r="Q24" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="R24" s="56">
         <v>34</v>
@@ -18683,14 +18641,14 @@
         <v>618</v>
       </c>
       <c r="AE24" s="49" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AF24" s="47" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AG24" s="77"/>
     </row>
-    <row r="25" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:33" ht="81" customHeight="1">
       <c r="A25" s="114">
         <v>18</v>
       </c>
@@ -18788,12 +18746,12 @@
         <v>674</v>
       </c>
       <c r="AE25" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF25" s="47"/>
       <c r="AG25" s="77"/>
     </row>
-    <row r="26" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:33" ht="81" customHeight="1">
       <c r="A26" s="114">
         <v>19</v>
       </c>
@@ -18891,12 +18849,12 @@
         <v>711</v>
       </c>
       <c r="AE26" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF26" s="47"/>
       <c r="AG26" s="77"/>
     </row>
-    <row r="27" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:33" ht="81" customHeight="1">
       <c r="A27" s="114">
         <v>20</v>
       </c>
@@ -18994,12 +18952,12 @@
         <v>699</v>
       </c>
       <c r="AE27" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF27" s="47"/>
       <c r="AG27" s="77"/>
     </row>
-    <row r="28" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:33" ht="81" customHeight="1">
       <c r="A28" s="114">
         <v>21</v>
       </c>
@@ -19097,12 +19055,12 @@
         <v>730</v>
       </c>
       <c r="AE28" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF28" s="47"/>
       <c r="AG28" s="77"/>
     </row>
-    <row r="29" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:33" ht="81" customHeight="1">
       <c r="A29" s="114">
         <v>22</v>
       </c>
@@ -19200,12 +19158,12 @@
         <v>694</v>
       </c>
       <c r="AE29" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF29" s="47"/>
       <c r="AG29" s="77"/>
     </row>
-    <row r="30" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:33" ht="81" customHeight="1">
       <c r="A30" s="114">
         <v>23</v>
       </c>
@@ -19303,12 +19261,12 @@
         <v>656</v>
       </c>
       <c r="AE30" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF30" s="47"/>
       <c r="AG30" s="77"/>
     </row>
-    <row r="31" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:33" ht="81" customHeight="1">
       <c r="A31" s="114">
         <v>24</v>
       </c>
@@ -19406,12 +19364,12 @@
         <v>735</v>
       </c>
       <c r="AE31" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF31" s="47"/>
       <c r="AG31" s="77"/>
     </row>
-    <row r="32" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:33" ht="81" customHeight="1">
       <c r="A32" s="114">
         <v>25</v>
       </c>
@@ -19509,12 +19467,12 @@
         <v>708</v>
       </c>
       <c r="AE32" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF32" s="47"/>
       <c r="AG32" s="77"/>
     </row>
-    <row r="33" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:33" ht="81" customHeight="1">
       <c r="A33" s="114">
         <v>26</v>
       </c>
@@ -19612,12 +19570,12 @@
         <v>668</v>
       </c>
       <c r="AE33" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF33" s="47"/>
       <c r="AG33" s="77"/>
     </row>
-    <row r="34" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:33" ht="81" customHeight="1">
       <c r="A34" s="114">
         <v>27</v>
       </c>
@@ -19715,12 +19673,12 @@
         <v>626</v>
       </c>
       <c r="AE34" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF34" s="47"/>
       <c r="AG34" s="77"/>
     </row>
-    <row r="35" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:33" ht="81" customHeight="1">
       <c r="A35" s="114">
         <v>28</v>
       </c>
@@ -19818,12 +19776,12 @@
         <v>664</v>
       </c>
       <c r="AE35" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF35" s="47"/>
       <c r="AG35" s="77"/>
     </row>
-    <row r="36" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:33" ht="81" customHeight="1">
       <c r="A36" s="114">
         <v>29</v>
       </c>
@@ -19921,12 +19879,12 @@
         <v>727</v>
       </c>
       <c r="AE36" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF36" s="47"/>
       <c r="AG36" s="77"/>
     </row>
-    <row r="37" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:33" ht="81" customHeight="1">
       <c r="A37" s="114">
         <v>30</v>
       </c>
@@ -20024,12 +19982,12 @@
         <v>531</v>
       </c>
       <c r="AE37" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF37" s="47"/>
       <c r="AG37" s="77"/>
     </row>
-    <row r="38" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:33" ht="81" customHeight="1">
       <c r="A38" s="114">
         <v>31</v>
       </c>
@@ -20127,12 +20085,12 @@
         <v>676</v>
       </c>
       <c r="AE38" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF38" s="47"/>
       <c r="AG38" s="77"/>
     </row>
-    <row r="39" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:33" ht="81" customHeight="1">
       <c r="A39" s="114">
         <v>32</v>
       </c>
@@ -20230,12 +20188,12 @@
         <v>725</v>
       </c>
       <c r="AE39" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF39" s="47"/>
       <c r="AG39" s="77"/>
     </row>
-    <row r="40" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:33" ht="81" customHeight="1">
       <c r="A40" s="114">
         <v>33</v>
       </c>
@@ -20333,12 +20291,12 @@
         <v>690</v>
       </c>
       <c r="AE40" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF40" s="47"/>
       <c r="AG40" s="77"/>
     </row>
-    <row r="41" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:33" ht="81" customHeight="1">
       <c r="A41" s="114">
         <v>34</v>
       </c>
@@ -20436,12 +20394,12 @@
         <v>715</v>
       </c>
       <c r="AE41" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF41" s="47"/>
       <c r="AG41" s="77"/>
     </row>
-    <row r="42" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:33" ht="81" customHeight="1">
       <c r="A42" s="114">
         <v>35</v>
       </c>
@@ -20539,12 +20497,12 @@
         <v>691</v>
       </c>
       <c r="AE42" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF42" s="47"/>
       <c r="AG42" s="77"/>
     </row>
-    <row r="43" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:33" ht="81" customHeight="1">
       <c r="A43" s="114">
         <v>36</v>
       </c>
@@ -20642,12 +20600,12 @@
         <v>639</v>
       </c>
       <c r="AE43" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF43" s="47"/>
       <c r="AG43" s="77"/>
     </row>
-    <row r="44" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:33" ht="81" customHeight="1">
       <c r="A44" s="114">
         <v>37</v>
       </c>
@@ -20745,12 +20703,12 @@
         <v>700</v>
       </c>
       <c r="AE44" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF44" s="47"/>
       <c r="AG44" s="77"/>
     </row>
-    <row r="45" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:33" ht="81" customHeight="1">
       <c r="A45" s="114">
         <v>38</v>
       </c>
@@ -20848,12 +20806,12 @@
         <v>735</v>
       </c>
       <c r="AE45" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF45" s="47"/>
       <c r="AG45" s="77"/>
     </row>
-    <row r="46" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:33" ht="81" customHeight="1">
       <c r="A46" s="114">
         <v>39</v>
       </c>
@@ -20951,12 +20909,12 @@
         <v>629</v>
       </c>
       <c r="AE46" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF46" s="47"/>
       <c r="AG46" s="77"/>
     </row>
-    <row r="47" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:33" ht="81" customHeight="1">
       <c r="A47" s="114">
         <v>40</v>
       </c>
@@ -21054,12 +21012,12 @@
         <v>700</v>
       </c>
       <c r="AE47" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF47" s="47"/>
       <c r="AG47" s="77"/>
     </row>
-    <row r="48" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:33" ht="81" customHeight="1">
       <c r="A48" s="114">
         <v>41</v>
       </c>
@@ -21157,12 +21115,12 @@
         <v>699</v>
       </c>
       <c r="AE48" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF48" s="47"/>
       <c r="AG48" s="77"/>
     </row>
-    <row r="49" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:33" ht="81" customHeight="1">
       <c r="A49" s="114">
         <v>42</v>
       </c>
@@ -21260,12 +21218,12 @@
         <v>704</v>
       </c>
       <c r="AE49" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF49" s="47"/>
       <c r="AG49" s="77"/>
     </row>
-    <row r="50" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:33" ht="81" customHeight="1">
       <c r="A50" s="114">
         <v>43</v>
       </c>
@@ -21363,12 +21321,12 @@
         <v>699</v>
       </c>
       <c r="AE50" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF50" s="47"/>
       <c r="AG50" s="77"/>
     </row>
-    <row r="51" spans="1:33" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:33" ht="81" customHeight="1">
       <c r="A51" s="114">
         <v>44</v>
       </c>
@@ -21466,12 +21424,12 @@
         <v>710</v>
       </c>
       <c r="AE51" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF51" s="47"/>
       <c r="AG51" s="77"/>
     </row>
-    <row r="52" spans="1:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:33" ht="22.5" customHeight="1">
       <c r="A52" s="77"/>
       <c r="B52" s="77"/>
       <c r="C52" s="77"/>
@@ -21506,7 +21464,7 @@
       <c r="AF52" s="77"/>
       <c r="AG52" s="77"/>
     </row>
-    <row r="55" spans="1:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:33" ht="22.5" customHeight="1">
       <c r="E55" s="16"/>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
@@ -21523,11 +21481,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="W4:Y4"/>
-    <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="C4:C7"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A2:AF2"/>
@@ -21539,6 +21492,11 @@
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="D4:D7"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="Z4:AB4"/>
   </mergeCells>
   <conditionalFormatting sqref="Y8:Y51 AB8:AB51 V8:V51">
     <cfRule type="cellIs" dxfId="57" priority="38" stopIfTrue="1" operator="lessThan">
@@ -21599,31 +21557,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK67"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="G4" sqref="A4:IV4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.28515625" defaultRowHeight="27" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.33203125" defaultRowHeight="27" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" style="30" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="30" customWidth="1"/>
+    <col min="2" max="2" width="39.33203125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" style="30" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" style="30" customWidth="1"/>
     <col min="7" max="7" width="12" style="30" customWidth="1"/>
-    <col min="8" max="31" width="8.85546875" style="30" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="30" customWidth="1"/>
+    <col min="8" max="31" width="8.88671875" style="30" customWidth="1"/>
+    <col min="32" max="32" width="15.5546875" style="30" customWidth="1"/>
     <col min="33" max="33" width="12" style="30" customWidth="1"/>
-    <col min="34" max="34" width="21.28515625" style="30" customWidth="1"/>
-    <col min="35" max="35" width="43.85546875" style="30" customWidth="1"/>
-    <col min="36" max="16384" width="6.28515625" style="30"/>
+    <col min="34" max="34" width="21.33203125" style="30" customWidth="1"/>
+    <col min="35" max="35" width="43.88671875" style="30" customWidth="1"/>
+    <col min="36" max="16384" width="6.33203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37" ht="42" customHeight="1">
       <c r="A1" s="177" t="s">
         <v>25</v>
       </c>
@@ -21662,7 +21620,7 @@
       <c r="AH1" s="177"/>
       <c r="AI1" s="177"/>
     </row>
-    <row r="2" spans="1:37" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="42" customHeight="1">
       <c r="A2" s="178" t="s">
         <v>24</v>
       </c>
@@ -21701,14 +21659,14 @@
       <c r="AH2" s="178"/>
       <c r="AI2" s="178"/>
     </row>
-    <row r="3" spans="1:37" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="42" customHeight="1">
       <c r="A3" s="72"/>
       <c r="B3" s="72"/>
       <c r="C3" s="72"/>
       <c r="D3" s="72"/>
       <c r="E3" s="73"/>
       <c r="F3" s="162" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G3" s="162"/>
       <c r="H3" s="162"/>
@@ -21742,70 +21700,70 @@
       <c r="AJ3" s="162"/>
       <c r="AK3" s="162"/>
     </row>
-    <row r="4" spans="1:37" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="165" t="s">
+    <row r="4" spans="1:37" ht="147.75" customHeight="1">
+      <c r="A4" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="165" t="s">
+      <c r="D4" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="167" t="s">
+      <c r="E4" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="167" t="s">
+      <c r="F4" s="168" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="169" t="s">
+      <c r="H4" s="163" t="s">
+        <v>781</v>
+      </c>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163" t="s">
+        <v>793</v>
+      </c>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163" t="s">
         <v>782</v>
       </c>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169" t="s">
-        <v>794</v>
-      </c>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169" t="s">
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="170" t="s">
         <v>783</v>
       </c>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="172" t="s">
+      <c r="R4" s="171"/>
+      <c r="S4" s="172"/>
+      <c r="T4" s="170" t="s">
+        <v>787</v>
+      </c>
+      <c r="U4" s="171"/>
+      <c r="V4" s="172"/>
+      <c r="W4" s="163" t="s">
         <v>784</v>
       </c>
-      <c r="R4" s="173"/>
-      <c r="S4" s="174"/>
-      <c r="T4" s="172" t="s">
-        <v>788</v>
-      </c>
-      <c r="U4" s="173"/>
-      <c r="V4" s="174"/>
-      <c r="W4" s="169" t="s">
+      <c r="X4" s="163"/>
+      <c r="Y4" s="163"/>
+      <c r="Z4" s="170" t="s">
+        <v>798</v>
+      </c>
+      <c r="AA4" s="171"/>
+      <c r="AB4" s="172"/>
+      <c r="AC4" s="163" t="s">
         <v>785</v>
       </c>
-      <c r="X4" s="169"/>
-      <c r="Y4" s="169"/>
-      <c r="Z4" s="172" t="s">
-        <v>799</v>
-      </c>
-      <c r="AA4" s="173"/>
-      <c r="AB4" s="174"/>
-      <c r="AC4" s="169" t="s">
+      <c r="AD4" s="163"/>
+      <c r="AE4" s="163"/>
+      <c r="AF4" s="153" t="s">
         <v>786</v>
-      </c>
-      <c r="AD4" s="169"/>
-      <c r="AE4" s="169"/>
-      <c r="AF4" s="153" t="s">
-        <v>787</v>
       </c>
       <c r="AG4" s="122" t="s">
         <v>10</v>
@@ -21817,13 +21775,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="165"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
+    <row r="5" spans="1:37" ht="48.75" customHeight="1">
+      <c r="A5" s="164"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
       <c r="G5" s="18"/>
       <c r="H5" s="36" t="s">
         <v>6</v>
@@ -21902,13 +21860,13 @@
       <c r="AH5" s="18"/>
       <c r="AI5" s="18"/>
     </row>
-    <row r="6" spans="1:37" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="165"/>
-      <c r="B6" s="165"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
+    <row r="6" spans="1:37" ht="35.25" customHeight="1">
+      <c r="A6" s="164"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
       <c r="G6" s="18" t="s">
         <v>2</v>
       </c>
@@ -22001,13 +21959,13 @@
       <c r="AH6" s="20"/>
       <c r="AI6" s="20"/>
     </row>
-    <row r="7" spans="1:37" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="166"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
+    <row r="7" spans="1:37" ht="35.25" customHeight="1">
+      <c r="A7" s="165"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
       <c r="G7" s="29" t="s">
         <v>3</v>
       </c>
@@ -22074,7 +22032,7 @@
       <c r="AH7" s="23"/>
       <c r="AI7" s="24"/>
     </row>
-    <row r="8" spans="1:37" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="99" customHeight="1">
       <c r="A8" s="44">
         <v>1</v>
       </c>
@@ -22115,7 +22073,7 @@
         <v>157</v>
       </c>
       <c r="N8" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O8" s="56">
         <v>43</v>
@@ -22182,13 +22140,13 @@
         <v>764</v>
       </c>
       <c r="AH8" s="150" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AI8" s="51" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
-    <row r="9" spans="1:37" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="99" customHeight="1">
       <c r="A9" s="44">
         <v>2</v>
       </c>
@@ -22296,11 +22254,11 @@
         <v>860</v>
       </c>
       <c r="AH9" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI9" s="48"/>
     </row>
-    <row r="10" spans="1:37" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="99" customHeight="1">
       <c r="A10" s="44">
         <v>3</v>
       </c>
@@ -22408,11 +22366,11 @@
         <v>948</v>
       </c>
       <c r="AH10" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI10" s="51"/>
     </row>
-    <row r="11" spans="1:37" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="99" customHeight="1">
       <c r="A11" s="44">
         <v>4</v>
       </c>
@@ -22520,11 +22478,11 @@
         <v>853</v>
       </c>
       <c r="AH11" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI11" s="48"/>
     </row>
-    <row r="12" spans="1:37" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="99" customHeight="1">
       <c r="A12" s="44">
         <v>5</v>
       </c>
@@ -22632,11 +22590,11 @@
         <v>861</v>
       </c>
       <c r="AH12" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI12" s="48"/>
     </row>
-    <row r="13" spans="1:37" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="99" customHeight="1">
       <c r="A13" s="44">
         <v>6</v>
       </c>
@@ -22744,11 +22702,11 @@
         <v>897</v>
       </c>
       <c r="AH13" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI13" s="48"/>
     </row>
-    <row r="14" spans="1:37" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="99" customHeight="1">
       <c r="A14" s="44">
         <v>7</v>
       </c>
@@ -22856,11 +22814,11 @@
         <v>934</v>
       </c>
       <c r="AH14" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI14" s="48"/>
     </row>
-    <row r="15" spans="1:37" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="99" customHeight="1">
       <c r="A15" s="44">
         <v>8</v>
       </c>
@@ -22968,11 +22926,11 @@
         <v>877</v>
       </c>
       <c r="AH15" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI15" s="48"/>
     </row>
-    <row r="16" spans="1:37" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="99" customHeight="1">
       <c r="A16" s="44">
         <v>9</v>
       </c>
@@ -23080,11 +23038,11 @@
         <v>861</v>
       </c>
       <c r="AH16" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI16" s="48"/>
     </row>
-    <row r="17" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="99" customHeight="1">
       <c r="A17" s="44">
         <v>10</v>
       </c>
@@ -23192,11 +23150,11 @@
         <v>918</v>
       </c>
       <c r="AH17" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI17" s="48"/>
     </row>
-    <row r="18" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="99" customHeight="1">
       <c r="A18" s="44">
         <v>11</v>
       </c>
@@ -23304,11 +23262,11 @@
         <v>911</v>
       </c>
       <c r="AH18" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI18" s="48"/>
     </row>
-    <row r="19" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="99" customHeight="1">
       <c r="A19" s="44">
         <v>12</v>
       </c>
@@ -23416,11 +23374,11 @@
         <v>874</v>
       </c>
       <c r="AH19" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI19" s="48"/>
     </row>
-    <row r="20" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="99" customHeight="1">
       <c r="A20" s="44">
         <v>13</v>
       </c>
@@ -23528,11 +23486,11 @@
         <v>933</v>
       </c>
       <c r="AH20" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI20" s="48"/>
     </row>
-    <row r="21" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="99" customHeight="1">
       <c r="A21" s="44">
         <v>14</v>
       </c>
@@ -23640,11 +23598,11 @@
         <v>919</v>
       </c>
       <c r="AH21" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI21" s="48"/>
     </row>
-    <row r="22" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="99" customHeight="1">
       <c r="A22" s="44">
         <v>15</v>
       </c>
@@ -23685,7 +23643,7 @@
         <v>160</v>
       </c>
       <c r="N22" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O22" s="56">
         <v>31</v>
@@ -23752,13 +23710,13 @@
         <v>762</v>
       </c>
       <c r="AH22" s="150" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AI22" s="51" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" ht="99" customHeight="1">
       <c r="A23" s="44">
         <v>16</v>
       </c>
@@ -23866,11 +23824,11 @@
         <v>942</v>
       </c>
       <c r="AH23" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI23" s="48"/>
     </row>
-    <row r="24" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="99" customHeight="1">
       <c r="A24" s="44">
         <v>17</v>
       </c>
@@ -23978,11 +23936,11 @@
         <v>777</v>
       </c>
       <c r="AH24" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI24" s="48"/>
     </row>
-    <row r="25" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" ht="99" customHeight="1">
       <c r="A25" s="44">
         <v>18</v>
       </c>
@@ -24090,11 +24048,11 @@
         <v>822</v>
       </c>
       <c r="AH25" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI25" s="48"/>
     </row>
-    <row r="26" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" ht="99" customHeight="1">
       <c r="A26" s="44">
         <v>19</v>
       </c>
@@ -24202,11 +24160,11 @@
         <v>905</v>
       </c>
       <c r="AH26" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI26" s="51"/>
     </row>
-    <row r="27" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" ht="99" customHeight="1">
       <c r="A27" s="44">
         <v>20</v>
       </c>
@@ -24314,11 +24272,11 @@
         <v>851</v>
       </c>
       <c r="AH27" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI27" s="48"/>
     </row>
-    <row r="28" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" ht="99" customHeight="1">
       <c r="A28" s="44">
         <v>21</v>
       </c>
@@ -24426,11 +24384,11 @@
         <v>944</v>
       </c>
       <c r="AH28" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI28" s="48"/>
     </row>
-    <row r="29" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="99" customHeight="1">
       <c r="A29" s="44">
         <v>22</v>
       </c>
@@ -24538,11 +24496,11 @@
         <v>906</v>
       </c>
       <c r="AH29" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI29" s="48"/>
     </row>
-    <row r="30" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" ht="99" customHeight="1">
       <c r="A30" s="44">
         <v>23</v>
       </c>
@@ -24650,11 +24608,11 @@
         <v>865</v>
       </c>
       <c r="AH30" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI30" s="48"/>
     </row>
-    <row r="31" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" ht="99" customHeight="1">
       <c r="A31" s="44">
         <v>24</v>
       </c>
@@ -24695,7 +24653,7 @@
         <v>149</v>
       </c>
       <c r="N31" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O31" s="56">
         <v>39</v>
@@ -24762,13 +24720,13 @@
         <v>721</v>
       </c>
       <c r="AH31" s="150" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AI31" s="51" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="99" customHeight="1">
       <c r="A32" s="44">
         <v>25</v>
       </c>
@@ -24876,11 +24834,11 @@
         <v>881</v>
       </c>
       <c r="AH32" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI32" s="51"/>
     </row>
-    <row r="33" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" ht="99" customHeight="1">
       <c r="A33" s="44">
         <v>26</v>
       </c>
@@ -24988,11 +24946,11 @@
         <v>756</v>
       </c>
       <c r="AH33" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI33" s="48"/>
     </row>
-    <row r="34" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" ht="99" customHeight="1">
       <c r="A34" s="44">
         <v>27</v>
       </c>
@@ -25100,11 +25058,11 @@
         <v>862</v>
       </c>
       <c r="AH34" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI34" s="48"/>
     </row>
-    <row r="35" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" ht="99" customHeight="1">
       <c r="A35" s="44">
         <v>28</v>
       </c>
@@ -25212,11 +25170,11 @@
         <v>944</v>
       </c>
       <c r="AH35" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI35" s="51"/>
     </row>
-    <row r="36" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" ht="99" customHeight="1">
       <c r="A36" s="44">
         <v>29</v>
       </c>
@@ -25237,10 +25195,10 @@
       </c>
       <c r="G36" s="52"/>
       <c r="H36" s="56" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I36" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J36" s="54">
         <f t="shared" si="0"/>
@@ -25250,67 +25208,67 @@
         <v>78</v>
       </c>
       <c r="L36" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="M36" s="54">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="N36" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O36" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="P36" s="155">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q36" s="56" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="R36" s="56" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="S36" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T36" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="U36" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="V36" s="54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W36" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="X36" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="Y36" s="54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z36" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AA36" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AB36" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC36" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AD36" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AE36" s="54">
         <f t="shared" si="7"/>
@@ -25324,11 +25282,11 @@
         <v>78</v>
       </c>
       <c r="AH36" s="154" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AI36" s="51"/>
     </row>
-    <row r="37" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" ht="99" customHeight="1">
       <c r="A37" s="44">
         <v>30</v>
       </c>
@@ -25436,11 +25394,11 @@
         <v>930</v>
       </c>
       <c r="AH37" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI37" s="48"/>
     </row>
-    <row r="38" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" ht="99" customHeight="1">
       <c r="A38" s="44">
         <v>31</v>
       </c>
@@ -25464,7 +25422,7 @@
         <v>84</v>
       </c>
       <c r="I38" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="J38" s="54">
         <f t="shared" si="0"/>
@@ -25479,60 +25437,60 @@
         <v>66</v>
       </c>
       <c r="N38" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O38" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="P38" s="155">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q38" s="56" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="R38" s="56" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="S38" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T38" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="U38" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="V38" s="54">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W38" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="X38" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="Y38" s="54">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z38" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AA38" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AB38" s="54">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC38" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AD38" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AE38" s="54">
         <f t="shared" si="7"/>
@@ -25546,11 +25504,11 @@
         <v>150</v>
       </c>
       <c r="AH38" s="154" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AI38" s="48"/>
     </row>
-    <row r="39" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" ht="99" customHeight="1">
       <c r="A39" s="44">
         <v>32</v>
       </c>
@@ -25658,11 +25616,11 @@
         <v>939</v>
       </c>
       <c r="AH39" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI39" s="48"/>
     </row>
-    <row r="40" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" ht="99" customHeight="1">
       <c r="A40" s="44">
         <v>33</v>
       </c>
@@ -25770,11 +25728,11 @@
         <v>935</v>
       </c>
       <c r="AH40" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI40" s="51"/>
     </row>
-    <row r="41" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" ht="99" customHeight="1">
       <c r="A41" s="44">
         <v>34</v>
       </c>
@@ -25882,11 +25840,11 @@
         <v>824</v>
       </c>
       <c r="AH41" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI41" s="48"/>
     </row>
-    <row r="42" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" ht="99" customHeight="1">
       <c r="A42" s="44">
         <v>35</v>
       </c>
@@ -25994,11 +25952,11 @@
         <v>839</v>
       </c>
       <c r="AH42" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI42" s="48"/>
     </row>
-    <row r="43" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" ht="99" customHeight="1">
       <c r="A43" s="44">
         <v>36</v>
       </c>
@@ -26106,11 +26064,11 @@
         <v>889</v>
       </c>
       <c r="AH43" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI43" s="48"/>
     </row>
-    <row r="44" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" ht="99" customHeight="1">
       <c r="A44" s="44">
         <v>37</v>
       </c>
@@ -26218,11 +26176,11 @@
         <v>916</v>
       </c>
       <c r="AH44" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI44" s="48"/>
     </row>
-    <row r="45" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" ht="99" customHeight="1">
       <c r="A45" s="44">
         <v>38</v>
       </c>
@@ -26330,11 +26288,11 @@
         <v>917</v>
       </c>
       <c r="AH45" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI45" s="51"/>
     </row>
-    <row r="46" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" ht="99" customHeight="1">
       <c r="A46" s="44">
         <v>39</v>
       </c>
@@ -26442,11 +26400,11 @@
         <v>895</v>
       </c>
       <c r="AH46" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI46" s="48"/>
     </row>
-    <row r="47" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" ht="99" customHeight="1">
       <c r="A47" s="44">
         <v>40</v>
       </c>
@@ -26554,11 +26512,11 @@
         <v>923</v>
       </c>
       <c r="AH47" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI47" s="48"/>
     </row>
-    <row r="48" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" ht="99" customHeight="1">
       <c r="A48" s="44">
         <v>41</v>
       </c>
@@ -26666,11 +26624,11 @@
         <v>844</v>
       </c>
       <c r="AH48" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI48" s="48"/>
     </row>
-    <row r="49" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" ht="99" customHeight="1">
       <c r="A49" s="44">
         <v>42</v>
       </c>
@@ -26778,11 +26736,11 @@
         <v>827</v>
       </c>
       <c r="AH49" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI49" s="48"/>
     </row>
-    <row r="50" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" ht="99" customHeight="1">
       <c r="A50" s="44">
         <v>43</v>
       </c>
@@ -26890,11 +26848,11 @@
         <v>872</v>
       </c>
       <c r="AH50" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI50" s="48"/>
     </row>
-    <row r="51" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" ht="99" customHeight="1">
       <c r="A51" s="44">
         <v>44</v>
       </c>
@@ -27002,11 +26960,11 @@
         <v>864</v>
       </c>
       <c r="AH51" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI51" s="48"/>
     </row>
-    <row r="52" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" ht="99" customHeight="1">
       <c r="A52" s="44">
         <v>45</v>
       </c>
@@ -27114,11 +27072,11 @@
         <v>915</v>
       </c>
       <c r="AH52" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI52" s="48"/>
     </row>
-    <row r="53" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" ht="99" customHeight="1">
       <c r="A53" s="44">
         <v>46</v>
       </c>
@@ -27226,11 +27184,11 @@
         <v>969</v>
       </c>
       <c r="AH53" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI53" s="48"/>
     </row>
-    <row r="54" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" ht="99" customHeight="1">
       <c r="A54" s="44">
         <v>47</v>
       </c>
@@ -27338,11 +27296,11 @@
         <v>984</v>
       </c>
       <c r="AH54" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI54" s="51"/>
     </row>
-    <row r="55" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" ht="99" customHeight="1">
       <c r="A55" s="44">
         <v>48</v>
       </c>
@@ -27450,11 +27408,11 @@
         <v>902</v>
       </c>
       <c r="AH55" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI55" s="48"/>
     </row>
-    <row r="56" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" ht="99" customHeight="1">
       <c r="A56" s="44">
         <v>49</v>
       </c>
@@ -27562,11 +27520,11 @@
         <v>895</v>
       </c>
       <c r="AH56" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI56" s="48"/>
     </row>
-    <row r="57" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" ht="99" customHeight="1">
       <c r="A57" s="44">
         <v>50</v>
       </c>
@@ -27674,11 +27632,11 @@
         <v>862</v>
       </c>
       <c r="AH57" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI57" s="51"/>
     </row>
-    <row r="58" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" ht="99" customHeight="1">
       <c r="A58" s="44">
         <v>51</v>
       </c>
@@ -27786,11 +27744,11 @@
         <v>834</v>
       </c>
       <c r="AH58" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI58" s="48"/>
     </row>
-    <row r="59" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" ht="99" customHeight="1">
       <c r="A59" s="44">
         <v>52</v>
       </c>
@@ -27898,11 +27856,11 @@
         <v>832</v>
       </c>
       <c r="AH59" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI59" s="51"/>
     </row>
-    <row r="60" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" ht="99" customHeight="1">
       <c r="A60" s="44">
         <v>53</v>
       </c>
@@ -28010,11 +27968,11 @@
         <v>892</v>
       </c>
       <c r="AH60" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI60" s="48"/>
     </row>
-    <row r="61" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" ht="99" customHeight="1">
       <c r="A61" s="44">
         <v>54</v>
       </c>
@@ -28122,11 +28080,11 @@
         <v>916</v>
       </c>
       <c r="AH61" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI61" s="86"/>
     </row>
-    <row r="62" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" ht="99" customHeight="1">
       <c r="A62" s="44">
         <v>55</v>
       </c>
@@ -28234,11 +28192,11 @@
         <v>926</v>
       </c>
       <c r="AH62" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI62" s="87"/>
     </row>
-    <row r="63" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" ht="99" customHeight="1">
       <c r="A63" s="44">
         <v>56</v>
       </c>
@@ -28346,11 +28304,11 @@
         <v>892</v>
       </c>
       <c r="AH63" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI63" s="87"/>
     </row>
-    <row r="64" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" ht="99" customHeight="1">
       <c r="A64" s="44">
         <v>57</v>
       </c>
@@ -28458,11 +28416,11 @@
         <v>868</v>
       </c>
       <c r="AH64" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI64" s="87"/>
     </row>
-    <row r="65" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" ht="99" customHeight="1">
       <c r="A65" s="44">
         <v>58</v>
       </c>
@@ -28570,11 +28528,11 @@
         <v>816</v>
       </c>
       <c r="AH65" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI65" s="87"/>
     </row>
-    <row r="66" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" ht="99" customHeight="1">
       <c r="A66" s="44">
         <v>59</v>
       </c>
@@ -28682,11 +28640,11 @@
         <v>801</v>
       </c>
       <c r="AH66" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI66" s="87"/>
     </row>
-    <row r="67" spans="1:35" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" ht="99" customHeight="1">
       <c r="A67" s="44">
         <v>60</v>
       </c>
@@ -28794,18 +28752,12 @@
         <v>845</v>
       </c>
       <c r="AH67" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AI67" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="F4:F7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="C4:C7"/>
     <mergeCell ref="T4:V4"/>
     <mergeCell ref="A1:AI1"/>
     <mergeCell ref="Z4:AB4"/>
@@ -28816,6 +28768,12 @@
     <mergeCell ref="Q4:S4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="A2:AI2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="C4:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J67 P8:P67 M8:M67">
     <cfRule type="cellIs" dxfId="47" priority="22" stopIfTrue="1" operator="lessThan">
@@ -28877,179 +28835,179 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC49"/>
   <sheetViews>
     <sheetView topLeftCell="D40" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" customWidth="1"/>
-    <col min="6" max="6" width="42.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="26" max="27" width="13.140625" customWidth="1"/>
-    <col min="28" max="28" width="24.28515625" customWidth="1"/>
-    <col min="29" max="29" width="45.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="39.5546875" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="26" max="27" width="13.109375" customWidth="1"/>
+    <col min="28" max="28" width="24.33203125" customWidth="1"/>
+    <col min="29" max="29" width="45.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="164" t="s">
+    <row r="1" spans="1:29" ht="63" customHeight="1">
+      <c r="A1" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
-      <c r="N1" s="164"/>
-      <c r="O1" s="164"/>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="164"/>
-      <c r="S1" s="164"/>
-      <c r="T1" s="164"/>
-      <c r="U1" s="164"/>
-      <c r="V1" s="164"/>
-      <c r="W1" s="164"/>
-      <c r="X1" s="164"/>
-      <c r="Y1" s="164"/>
-      <c r="Z1" s="164"/>
-      <c r="AA1" s="164"/>
-      <c r="AB1" s="164"/>
-      <c r="AC1" s="164"/>
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="167"/>
+      <c r="H1" s="167"/>
+      <c r="I1" s="167"/>
+      <c r="J1" s="167"/>
+      <c r="K1" s="167"/>
+      <c r="L1" s="167"/>
+      <c r="M1" s="167"/>
+      <c r="N1" s="167"/>
+      <c r="O1" s="167"/>
+      <c r="P1" s="167"/>
+      <c r="Q1" s="167"/>
+      <c r="R1" s="167"/>
+      <c r="S1" s="167"/>
+      <c r="T1" s="167"/>
+      <c r="U1" s="167"/>
+      <c r="V1" s="167"/>
+      <c r="W1" s="167"/>
+      <c r="X1" s="167"/>
+      <c r="Y1" s="167"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="167"/>
+      <c r="AB1" s="167"/>
+      <c r="AC1" s="167"/>
     </row>
-    <row r="2" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="164" t="s">
+    <row r="2" spans="1:29" ht="63" customHeight="1">
+      <c r="A2" s="167" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164"/>
-      <c r="T2" s="164"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="164"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="164"/>
-      <c r="Y2" s="164"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="164"/>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="164"/>
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="167"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="167"/>
+      <c r="S2" s="167"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="167"/>
+      <c r="AA2" s="167"/>
+      <c r="AB2" s="167"/>
+      <c r="AC2" s="167"/>
     </row>
-    <row r="3" spans="1:29" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="163" t="s">
-        <v>772</v>
-      </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="163"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="163"/>
-      <c r="G3" s="163"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="163"/>
-      <c r="J3" s="163"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="163"/>
-      <c r="M3" s="163"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="163"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="163"/>
-      <c r="S3" s="163"/>
-      <c r="T3" s="163"/>
-      <c r="U3" s="163"/>
-      <c r="V3" s="163"/>
-      <c r="W3" s="163"/>
-      <c r="X3" s="163"/>
-      <c r="Y3" s="163"/>
-      <c r="Z3" s="163"/>
-      <c r="AA3" s="163"/>
-      <c r="AB3" s="163"/>
-      <c r="AC3" s="163"/>
+    <row r="3" spans="1:29" ht="63" customHeight="1">
+      <c r="A3" s="166" t="s">
+        <v>771</v>
+      </c>
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="166"/>
+      <c r="T3" s="166"/>
+      <c r="U3" s="166"/>
+      <c r="V3" s="166"/>
+      <c r="W3" s="166"/>
+      <c r="X3" s="166"/>
+      <c r="Y3" s="166"/>
+      <c r="Z3" s="166"/>
+      <c r="AA3" s="166"/>
+      <c r="AB3" s="166"/>
+      <c r="AC3" s="166"/>
     </row>
-    <row r="4" spans="1:29" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="179" t="s">
+    <row r="4" spans="1:29" ht="172.5" customHeight="1">
+      <c r="A4" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="179" t="s">
+      <c r="C4" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="179" t="s">
+      <c r="D4" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="181" t="s">
+      <c r="E4" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="181" t="s">
+      <c r="F4" s="179" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="169" t="s">
-        <v>774</v>
-      </c>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169" t="s">
-        <v>794</v>
-      </c>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169" t="s">
+      <c r="H4" s="163" t="s">
+        <v>773</v>
+      </c>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163" t="s">
+        <v>793</v>
+      </c>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163" t="s">
+        <v>775</v>
+      </c>
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="163" t="s">
+        <v>801</v>
+      </c>
+      <c r="R4" s="163"/>
+      <c r="S4" s="163"/>
+      <c r="T4" s="163" t="s">
         <v>776</v>
       </c>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="169" t="s">
-        <v>802</v>
-      </c>
-      <c r="R4" s="169"/>
-      <c r="S4" s="169"/>
-      <c r="T4" s="169" t="s">
-        <v>777</v>
-      </c>
-      <c r="U4" s="169"/>
-      <c r="V4" s="169"/>
-      <c r="W4" s="169" t="s">
-        <v>779</v>
-      </c>
-      <c r="X4" s="169"/>
-      <c r="Y4" s="169"/>
+      <c r="U4" s="163"/>
+      <c r="V4" s="163"/>
+      <c r="W4" s="163" t="s">
+        <v>778</v>
+      </c>
+      <c r="X4" s="163"/>
+      <c r="Y4" s="163"/>
       <c r="Z4" s="62" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AA4" s="62" t="s">
         <v>11</v>
@@ -29061,13 +29019,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="179"/>
-      <c r="B5" s="179"/>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
+    <row r="5" spans="1:29" ht="61.5" customHeight="1">
+      <c r="A5" s="181"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
       <c r="G5" s="2"/>
       <c r="H5" s="7" t="s">
         <v>6</v>
@@ -29128,13 +29086,13 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="67"/>
     </row>
-    <row r="6" spans="1:29" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="179"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="179"/>
-      <c r="D6" s="179"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
+    <row r="6" spans="1:29" ht="61.5" customHeight="1">
+      <c r="A6" s="181"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="179"/>
+      <c r="F6" s="179"/>
       <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
@@ -29207,13 +29165,13 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="53"/>
     </row>
-    <row r="7" spans="1:29" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="180"/>
-      <c r="B7" s="180"/>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
+    <row r="7" spans="1:29" ht="55.5" customHeight="1">
+      <c r="A7" s="182"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
       <c r="G7" s="68" t="s">
         <v>3</v>
       </c>
@@ -29266,7 +29224,7 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="69"/>
     </row>
-    <row r="8" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="76.5" customHeight="1">
       <c r="A8" s="132">
         <v>1</v>
       </c>
@@ -29280,10 +29238,10 @@
         <v>200701</v>
       </c>
       <c r="E8" s="134" t="s">
+        <v>684</v>
+      </c>
+      <c r="F8" s="134" t="s">
         <v>685</v>
-      </c>
-      <c r="F8" s="134" t="s">
-        <v>686</v>
       </c>
       <c r="G8" s="135"/>
       <c r="H8" s="136">
@@ -29354,11 +29312,11 @@
         <v>499</v>
       </c>
       <c r="AB8" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC8" s="69"/>
     </row>
-    <row r="9" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="76.5" customHeight="1">
       <c r="A9" s="139">
         <v>2</v>
       </c>
@@ -29372,10 +29330,10 @@
         <v>200702</v>
       </c>
       <c r="E9" s="134" t="s">
+        <v>686</v>
+      </c>
+      <c r="F9" s="134" t="s">
         <v>687</v>
-      </c>
-      <c r="F9" s="134" t="s">
-        <v>688</v>
       </c>
       <c r="G9" s="140"/>
       <c r="H9" s="136">
@@ -29446,11 +29404,11 @@
         <v>541</v>
       </c>
       <c r="AB9" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC9" s="69"/>
     </row>
-    <row r="10" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="76.5" customHeight="1">
       <c r="A10" s="132">
         <v>3</v>
       </c>
@@ -29464,10 +29422,10 @@
         <v>200703</v>
       </c>
       <c r="E10" s="134" t="s">
+        <v>688</v>
+      </c>
+      <c r="F10" s="134" t="s">
         <v>689</v>
-      </c>
-      <c r="F10" s="134" t="s">
-        <v>690</v>
       </c>
       <c r="G10" s="140"/>
       <c r="H10" s="136">
@@ -29538,11 +29496,11 @@
         <v>562</v>
       </c>
       <c r="AB10" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC10" s="70"/>
     </row>
-    <row r="11" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="76.5" customHeight="1">
       <c r="A11" s="139">
         <v>4</v>
       </c>
@@ -29556,10 +29514,10 @@
         <v>200704</v>
       </c>
       <c r="E11" s="134" t="s">
+        <v>690</v>
+      </c>
+      <c r="F11" s="134" t="s">
         <v>691</v>
-      </c>
-      <c r="F11" s="134" t="s">
-        <v>692</v>
       </c>
       <c r="G11" s="140"/>
       <c r="H11" s="136">
@@ -29630,11 +29588,11 @@
         <v>463</v>
       </c>
       <c r="AB11" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC11" s="70"/>
     </row>
-    <row r="12" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="76.5" customHeight="1">
       <c r="A12" s="132">
         <v>5</v>
       </c>
@@ -29648,10 +29606,10 @@
         <v>200705</v>
       </c>
       <c r="E12" s="134" t="s">
+        <v>692</v>
+      </c>
+      <c r="F12" s="134" t="s">
         <v>693</v>
-      </c>
-      <c r="F12" s="134" t="s">
-        <v>694</v>
       </c>
       <c r="G12" s="140"/>
       <c r="H12" s="136">
@@ -29722,11 +29680,11 @@
         <v>379</v>
       </c>
       <c r="AB12" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC12" s="70"/>
     </row>
-    <row r="13" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="76.5" customHeight="1">
       <c r="A13" s="139">
         <v>6</v>
       </c>
@@ -29740,10 +29698,10 @@
         <v>200706</v>
       </c>
       <c r="E13" s="134" t="s">
+        <v>694</v>
+      </c>
+      <c r="F13" s="134" t="s">
         <v>695</v>
-      </c>
-      <c r="F13" s="134" t="s">
-        <v>696</v>
       </c>
       <c r="G13" s="140"/>
       <c r="H13" s="136">
@@ -29814,11 +29772,11 @@
         <v>436</v>
       </c>
       <c r="AB13" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC13" s="70"/>
     </row>
-    <row r="14" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="76.5" customHeight="1">
       <c r="A14" s="132">
         <v>7</v>
       </c>
@@ -29832,10 +29790,10 @@
         <v>200707</v>
       </c>
       <c r="E14" s="134" t="s">
+        <v>696</v>
+      </c>
+      <c r="F14" s="134" t="s">
         <v>697</v>
-      </c>
-      <c r="F14" s="134" t="s">
-        <v>698</v>
       </c>
       <c r="G14" s="140"/>
       <c r="H14" s="136">
@@ -29906,11 +29864,11 @@
         <v>556</v>
       </c>
       <c r="AB14" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC14" s="70"/>
     </row>
-    <row r="15" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="76.5" customHeight="1">
       <c r="A15" s="139">
         <v>8</v>
       </c>
@@ -29924,10 +29882,10 @@
         <v>200708</v>
       </c>
       <c r="E15" s="134" t="s">
+        <v>698</v>
+      </c>
+      <c r="F15" s="134" t="s">
         <v>699</v>
-      </c>
-      <c r="F15" s="134" t="s">
-        <v>700</v>
       </c>
       <c r="G15" s="140"/>
       <c r="H15" s="136">
@@ -29998,11 +29956,11 @@
         <v>570</v>
       </c>
       <c r="AB15" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC15" s="70"/>
     </row>
-    <row r="16" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="76.5" customHeight="1">
       <c r="A16" s="132">
         <v>9</v>
       </c>
@@ -30016,10 +29974,10 @@
         <v>200709</v>
       </c>
       <c r="E16" s="134" t="s">
+        <v>700</v>
+      </c>
+      <c r="F16" s="134" t="s">
         <v>701</v>
-      </c>
-      <c r="F16" s="134" t="s">
-        <v>702</v>
       </c>
       <c r="G16" s="140"/>
       <c r="H16" s="136">
@@ -30090,11 +30048,11 @@
         <v>529</v>
       </c>
       <c r="AB16" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC16" s="70"/>
     </row>
-    <row r="17" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" ht="76.5" customHeight="1">
       <c r="A17" s="139">
         <v>10</v>
       </c>
@@ -30108,10 +30066,10 @@
         <v>200710</v>
       </c>
       <c r="E17" s="134" t="s">
+        <v>702</v>
+      </c>
+      <c r="F17" s="134" t="s">
         <v>703</v>
-      </c>
-      <c r="F17" s="134" t="s">
-        <v>704</v>
       </c>
       <c r="G17" s="140"/>
       <c r="H17" s="136">
@@ -30182,11 +30140,11 @@
         <v>486</v>
       </c>
       <c r="AB17" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC17" s="70"/>
     </row>
-    <row r="18" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" ht="76.5" customHeight="1">
       <c r="A18" s="132">
         <v>11</v>
       </c>
@@ -30200,10 +30158,10 @@
         <v>200711</v>
       </c>
       <c r="E18" s="134" t="s">
+        <v>704</v>
+      </c>
+      <c r="F18" s="134" t="s">
         <v>705</v>
-      </c>
-      <c r="F18" s="134" t="s">
-        <v>706</v>
       </c>
       <c r="G18" s="140"/>
       <c r="H18" s="136">
@@ -30274,11 +30232,11 @@
         <v>497</v>
       </c>
       <c r="AB18" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC18" s="70"/>
     </row>
-    <row r="19" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" ht="76.5" customHeight="1">
       <c r="A19" s="139">
         <v>12</v>
       </c>
@@ -30292,10 +30250,10 @@
         <v>200712</v>
       </c>
       <c r="E19" s="134" t="s">
+        <v>706</v>
+      </c>
+      <c r="F19" s="134" t="s">
         <v>707</v>
-      </c>
-      <c r="F19" s="134" t="s">
-        <v>708</v>
       </c>
       <c r="G19" s="140"/>
       <c r="H19" s="136">
@@ -30366,11 +30324,11 @@
         <v>530</v>
       </c>
       <c r="AB19" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC19" s="70"/>
     </row>
-    <row r="20" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" ht="76.5" customHeight="1">
       <c r="A20" s="132">
         <v>13</v>
       </c>
@@ -30384,10 +30342,10 @@
         <v>200713</v>
       </c>
       <c r="E20" s="134" t="s">
+        <v>708</v>
+      </c>
+      <c r="F20" s="134" t="s">
         <v>709</v>
-      </c>
-      <c r="F20" s="134" t="s">
-        <v>710</v>
       </c>
       <c r="G20" s="140"/>
       <c r="H20" s="136">
@@ -30458,11 +30416,11 @@
         <v>437</v>
       </c>
       <c r="AB20" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC20" s="70"/>
     </row>
-    <row r="21" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" ht="76.5" customHeight="1">
       <c r="A21" s="139">
         <v>14</v>
       </c>
@@ -30479,7 +30437,7 @@
         <v>60</v>
       </c>
       <c r="F21" s="134" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G21" s="140"/>
       <c r="H21" s="136">
@@ -30550,11 +30508,11 @@
         <v>578</v>
       </c>
       <c r="AB21" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC21" s="70"/>
     </row>
-    <row r="22" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" ht="76.5" customHeight="1">
       <c r="A22" s="132">
         <v>15</v>
       </c>
@@ -30568,10 +30526,10 @@
         <v>200715</v>
       </c>
       <c r="E22" s="134" t="s">
+        <v>711</v>
+      </c>
+      <c r="F22" s="134" t="s">
         <v>712</v>
-      </c>
-      <c r="F22" s="134" t="s">
-        <v>713</v>
       </c>
       <c r="G22" s="140"/>
       <c r="H22" s="136">
@@ -30642,11 +30600,11 @@
         <v>509</v>
       </c>
       <c r="AB22" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC22" s="70"/>
     </row>
-    <row r="23" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" ht="76.5" customHeight="1">
       <c r="A23" s="139">
         <v>16</v>
       </c>
@@ -30660,10 +30618,10 @@
         <v>200716</v>
       </c>
       <c r="E23" s="134" t="s">
+        <v>713</v>
+      </c>
+      <c r="F23" s="134" t="s">
         <v>714</v>
-      </c>
-      <c r="F23" s="134" t="s">
-        <v>715</v>
       </c>
       <c r="G23" s="140"/>
       <c r="H23" s="136">
@@ -30734,11 +30692,11 @@
         <v>506</v>
       </c>
       <c r="AB23" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC23" s="70"/>
     </row>
-    <row r="24" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" ht="76.5" customHeight="1">
       <c r="A24" s="132">
         <v>17</v>
       </c>
@@ -30752,10 +30710,10 @@
         <v>200717</v>
       </c>
       <c r="E24" s="134" t="s">
+        <v>715</v>
+      </c>
+      <c r="F24" s="134" t="s">
         <v>716</v>
-      </c>
-      <c r="F24" s="134" t="s">
-        <v>717</v>
       </c>
       <c r="G24" s="140"/>
       <c r="H24" s="136">
@@ -30826,11 +30784,11 @@
         <v>461</v>
       </c>
       <c r="AB24" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC24" s="70"/>
     </row>
-    <row r="25" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" ht="76.5" customHeight="1">
       <c r="A25" s="139">
         <v>18</v>
       </c>
@@ -30844,10 +30802,10 @@
         <v>200718</v>
       </c>
       <c r="E25" s="134" t="s">
+        <v>717</v>
+      </c>
+      <c r="F25" s="134" t="s">
         <v>718</v>
-      </c>
-      <c r="F25" s="134" t="s">
-        <v>719</v>
       </c>
       <c r="G25" s="140"/>
       <c r="H25" s="136">
@@ -30918,11 +30876,11 @@
         <v>453</v>
       </c>
       <c r="AB25" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC25" s="70"/>
     </row>
-    <row r="26" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" ht="76.5" customHeight="1">
       <c r="A26" s="132">
         <v>19</v>
       </c>
@@ -30936,7 +30894,7 @@
         <v>200719</v>
       </c>
       <c r="E26" s="134" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F26" s="134" t="s">
         <v>370</v>
@@ -31010,11 +30968,11 @@
         <v>507</v>
       </c>
       <c r="AB26" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC26" s="70"/>
     </row>
-    <row r="27" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" ht="76.5" customHeight="1">
       <c r="A27" s="139">
         <v>20</v>
       </c>
@@ -31028,10 +30986,10 @@
         <v>200720</v>
       </c>
       <c r="E27" s="134" t="s">
+        <v>720</v>
+      </c>
+      <c r="F27" s="134" t="s">
         <v>721</v>
-      </c>
-      <c r="F27" s="134" t="s">
-        <v>722</v>
       </c>
       <c r="G27" s="140"/>
       <c r="H27" s="136">
@@ -31102,11 +31060,11 @@
         <v>529</v>
       </c>
       <c r="AB27" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC27" s="70"/>
     </row>
-    <row r="28" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" ht="76.5" customHeight="1">
       <c r="A28" s="132">
         <v>21</v>
       </c>
@@ -31120,14 +31078,14 @@
         <v>200721</v>
       </c>
       <c r="E28" s="134" t="s">
+        <v>722</v>
+      </c>
+      <c r="F28" s="134" t="s">
         <v>723</v>
-      </c>
-      <c r="F28" s="134" t="s">
-        <v>724</v>
       </c>
       <c r="G28" s="140"/>
       <c r="H28" s="136" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I28" s="136">
         <v>59</v>
@@ -31137,7 +31095,7 @@
         <v>59</v>
       </c>
       <c r="K28" s="136" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="L28" s="136">
         <v>52</v>
@@ -31147,7 +31105,7 @@
         <v>52</v>
       </c>
       <c r="N28" s="136" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="O28" s="136">
         <v>32</v>
@@ -31157,7 +31115,7 @@
         <v>32</v>
       </c>
       <c r="Q28" s="136" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="R28" s="136">
         <v>15</v>
@@ -31180,7 +31138,7 @@
         <v>62</v>
       </c>
       <c r="X28" s="136" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="Y28" s="119">
         <f t="shared" si="5"/>
@@ -31194,11 +31152,11 @@
         <v>230</v>
       </c>
       <c r="AB28" s="49" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AC28" s="70"/>
     </row>
-    <row r="29" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" ht="76.5" customHeight="1">
       <c r="A29" s="139">
         <v>22</v>
       </c>
@@ -31212,10 +31170,10 @@
         <v>200722</v>
       </c>
       <c r="E29" s="134" t="s">
+        <v>724</v>
+      </c>
+      <c r="F29" s="134" t="s">
         <v>725</v>
-      </c>
-      <c r="F29" s="134" t="s">
-        <v>726</v>
       </c>
       <c r="G29" s="140"/>
       <c r="H29" s="136">
@@ -31286,11 +31244,11 @@
         <v>496</v>
       </c>
       <c r="AB29" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC29" s="70"/>
     </row>
-    <row r="30" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" ht="76.5" customHeight="1">
       <c r="A30" s="132">
         <v>23</v>
       </c>
@@ -31304,10 +31262,10 @@
         <v>200724</v>
       </c>
       <c r="E30" s="134" t="s">
+        <v>726</v>
+      </c>
+      <c r="F30" s="134" t="s">
         <v>727</v>
-      </c>
-      <c r="F30" s="134" t="s">
-        <v>728</v>
       </c>
       <c r="G30" s="140"/>
       <c r="H30" s="136">
@@ -31378,11 +31336,11 @@
         <v>511</v>
       </c>
       <c r="AB30" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC30" s="70"/>
     </row>
-    <row r="31" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" ht="76.5" customHeight="1">
       <c r="A31" s="139">
         <v>24</v>
       </c>
@@ -31396,10 +31354,10 @@
         <v>200725</v>
       </c>
       <c r="E31" s="134" t="s">
+        <v>728</v>
+      </c>
+      <c r="F31" s="134" t="s">
         <v>729</v>
-      </c>
-      <c r="F31" s="134" t="s">
-        <v>730</v>
       </c>
       <c r="G31" s="140"/>
       <c r="H31" s="136">
@@ -31470,11 +31428,11 @@
         <v>486</v>
       </c>
       <c r="AB31" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC31" s="70"/>
     </row>
-    <row r="32" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" ht="76.5" customHeight="1">
       <c r="A32" s="132">
         <v>25</v>
       </c>
@@ -31488,10 +31446,10 @@
         <v>200726</v>
       </c>
       <c r="E32" s="134" t="s">
+        <v>730</v>
+      </c>
+      <c r="F32" s="134" t="s">
         <v>731</v>
-      </c>
-      <c r="F32" s="134" t="s">
-        <v>732</v>
       </c>
       <c r="G32" s="140"/>
       <c r="H32" s="136">
@@ -31562,11 +31520,11 @@
         <v>369</v>
       </c>
       <c r="AB32" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC32" s="70"/>
     </row>
-    <row r="33" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" ht="76.5" customHeight="1">
       <c r="A33" s="139">
         <v>26</v>
       </c>
@@ -31580,10 +31538,10 @@
         <v>200727</v>
       </c>
       <c r="E33" s="134" t="s">
+        <v>732</v>
+      </c>
+      <c r="F33" s="134" t="s">
         <v>733</v>
-      </c>
-      <c r="F33" s="134" t="s">
-        <v>734</v>
       </c>
       <c r="G33" s="140"/>
       <c r="H33" s="136">
@@ -31654,11 +31612,11 @@
         <v>557</v>
       </c>
       <c r="AB33" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC33" s="70"/>
     </row>
-    <row r="34" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" ht="76.5" customHeight="1">
       <c r="A34" s="132">
         <v>27</v>
       </c>
@@ -31672,10 +31630,10 @@
         <v>200728</v>
       </c>
       <c r="E34" s="134" t="s">
+        <v>734</v>
+      </c>
+      <c r="F34" s="134" t="s">
         <v>735</v>
-      </c>
-      <c r="F34" s="134" t="s">
-        <v>736</v>
       </c>
       <c r="G34" s="140"/>
       <c r="H34" s="136">
@@ -31746,11 +31704,11 @@
         <v>426</v>
       </c>
       <c r="AB34" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC34" s="70"/>
     </row>
-    <row r="35" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" ht="76.5" customHeight="1">
       <c r="A35" s="139">
         <v>28</v>
       </c>
@@ -31764,10 +31722,10 @@
         <v>200729</v>
       </c>
       <c r="E35" s="134" t="s">
+        <v>736</v>
+      </c>
+      <c r="F35" s="134" t="s">
         <v>737</v>
-      </c>
-      <c r="F35" s="134" t="s">
-        <v>738</v>
       </c>
       <c r="G35" s="140"/>
       <c r="H35" s="136">
@@ -31838,11 +31796,11 @@
         <v>461</v>
       </c>
       <c r="AB35" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC35" s="70"/>
     </row>
-    <row r="36" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" ht="76.5" customHeight="1">
       <c r="A36" s="132">
         <v>29</v>
       </c>
@@ -31856,10 +31814,10 @@
         <v>200730</v>
       </c>
       <c r="E36" s="134" t="s">
+        <v>738</v>
+      </c>
+      <c r="F36" s="134" t="s">
         <v>739</v>
-      </c>
-      <c r="F36" s="134" t="s">
-        <v>740</v>
       </c>
       <c r="G36" s="140"/>
       <c r="H36" s="136">
@@ -31930,11 +31888,11 @@
         <v>532</v>
       </c>
       <c r="AB36" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC36" s="70"/>
     </row>
-    <row r="37" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" ht="76.5" customHeight="1">
       <c r="A37" s="139">
         <v>30</v>
       </c>
@@ -31948,10 +31906,10 @@
         <v>200731</v>
       </c>
       <c r="E37" s="134" t="s">
+        <v>740</v>
+      </c>
+      <c r="F37" s="134" t="s">
         <v>741</v>
-      </c>
-      <c r="F37" s="134" t="s">
-        <v>742</v>
       </c>
       <c r="G37" s="140"/>
       <c r="H37" s="136">
@@ -32022,11 +31980,11 @@
         <v>507</v>
       </c>
       <c r="AB37" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC37" s="70"/>
     </row>
-    <row r="38" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" ht="76.5" customHeight="1">
       <c r="A38" s="132">
         <v>31</v>
       </c>
@@ -32040,10 +31998,10 @@
         <v>200732</v>
       </c>
       <c r="E38" s="134" t="s">
+        <v>742</v>
+      </c>
+      <c r="F38" s="134" t="s">
         <v>743</v>
-      </c>
-      <c r="F38" s="134" t="s">
-        <v>744</v>
       </c>
       <c r="G38" s="140"/>
       <c r="H38" s="136">
@@ -32114,11 +32072,11 @@
         <v>523</v>
       </c>
       <c r="AB38" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC38" s="70"/>
     </row>
-    <row r="39" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" ht="76.5" customHeight="1">
       <c r="A39" s="139">
         <v>32</v>
       </c>
@@ -32132,10 +32090,10 @@
         <v>200733</v>
       </c>
       <c r="E39" s="134" t="s">
+        <v>744</v>
+      </c>
+      <c r="F39" s="134" t="s">
         <v>745</v>
-      </c>
-      <c r="F39" s="134" t="s">
-        <v>746</v>
       </c>
       <c r="G39" s="140"/>
       <c r="H39" s="136">
@@ -32206,11 +32164,11 @@
         <v>551</v>
       </c>
       <c r="AB39" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC39" s="70"/>
     </row>
-    <row r="40" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" ht="76.5" customHeight="1">
       <c r="A40" s="132">
         <v>33</v>
       </c>
@@ -32224,10 +32182,10 @@
         <v>200734</v>
       </c>
       <c r="E40" s="134" t="s">
+        <v>746</v>
+      </c>
+      <c r="F40" s="134" t="s">
         <v>747</v>
-      </c>
-      <c r="F40" s="134" t="s">
-        <v>748</v>
       </c>
       <c r="G40" s="140"/>
       <c r="H40" s="136">
@@ -32298,11 +32256,11 @@
         <v>610</v>
       </c>
       <c r="AB40" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC40" s="70"/>
     </row>
-    <row r="41" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" ht="76.5" customHeight="1">
       <c r="A41" s="139">
         <v>34</v>
       </c>
@@ -32316,10 +32274,10 @@
         <v>200735</v>
       </c>
       <c r="E41" s="134" t="s">
+        <v>748</v>
+      </c>
+      <c r="F41" s="134" t="s">
         <v>749</v>
-      </c>
-      <c r="F41" s="134" t="s">
-        <v>750</v>
       </c>
       <c r="G41" s="140"/>
       <c r="H41" s="136">
@@ -32390,11 +32348,11 @@
         <v>519</v>
       </c>
       <c r="AB41" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC41" s="70"/>
     </row>
-    <row r="42" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" ht="76.5" customHeight="1">
       <c r="A42" s="132">
         <v>35</v>
       </c>
@@ -32408,10 +32366,10 @@
         <v>200736</v>
       </c>
       <c r="E42" s="134" t="s">
+        <v>750</v>
+      </c>
+      <c r="F42" s="134" t="s">
         <v>751</v>
-      </c>
-      <c r="F42" s="134" t="s">
-        <v>752</v>
       </c>
       <c r="G42" s="140"/>
       <c r="H42" s="136">
@@ -32482,11 +32440,11 @@
         <v>598</v>
       </c>
       <c r="AB42" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC42" s="70"/>
     </row>
-    <row r="43" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" ht="76.5" customHeight="1">
       <c r="A43" s="139">
         <v>36</v>
       </c>
@@ -32500,10 +32458,10 @@
         <v>200737</v>
       </c>
       <c r="E43" s="134" t="s">
+        <v>752</v>
+      </c>
+      <c r="F43" s="134" t="s">
         <v>753</v>
-      </c>
-      <c r="F43" s="134" t="s">
-        <v>754</v>
       </c>
       <c r="G43" s="140"/>
       <c r="H43" s="136">
@@ -32574,11 +32532,11 @@
         <v>530</v>
       </c>
       <c r="AB43" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC43" s="70"/>
     </row>
-    <row r="44" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" ht="76.5" customHeight="1">
       <c r="A44" s="132">
         <v>37</v>
       </c>
@@ -32592,10 +32550,10 @@
         <v>200738</v>
       </c>
       <c r="E44" s="134" t="s">
+        <v>754</v>
+      </c>
+      <c r="F44" s="134" t="s">
         <v>755</v>
-      </c>
-      <c r="F44" s="134" t="s">
-        <v>756</v>
       </c>
       <c r="G44" s="140"/>
       <c r="H44" s="136">
@@ -32666,11 +32624,11 @@
         <v>549</v>
       </c>
       <c r="AB44" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC44" s="70"/>
     </row>
-    <row r="45" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" ht="76.5" customHeight="1">
       <c r="A45" s="139">
         <v>38</v>
       </c>
@@ -32684,10 +32642,10 @@
         <v>200739</v>
       </c>
       <c r="E45" s="134" t="s">
+        <v>756</v>
+      </c>
+      <c r="F45" s="134" t="s">
         <v>757</v>
-      </c>
-      <c r="F45" s="134" t="s">
-        <v>758</v>
       </c>
       <c r="G45" s="140"/>
       <c r="H45" s="136">
@@ -32758,11 +32716,11 @@
         <v>497</v>
       </c>
       <c r="AB45" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC45" s="71"/>
     </row>
-    <row r="46" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" ht="76.5" customHeight="1">
       <c r="A46" s="132">
         <v>39</v>
       </c>
@@ -32776,10 +32734,10 @@
         <v>200740</v>
       </c>
       <c r="E46" s="134" t="s">
+        <v>758</v>
+      </c>
+      <c r="F46" s="134" t="s">
         <v>759</v>
-      </c>
-      <c r="F46" s="134" t="s">
-        <v>760</v>
       </c>
       <c r="G46" s="140"/>
       <c r="H46" s="136">
@@ -32850,11 +32808,11 @@
         <v>537</v>
       </c>
       <c r="AB46" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC46" s="70"/>
     </row>
-    <row r="47" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" ht="76.5" customHeight="1">
       <c r="A47" s="139">
         <v>40</v>
       </c>
@@ -32868,10 +32826,10 @@
         <v>200741</v>
       </c>
       <c r="E47" s="134" t="s">
+        <v>765</v>
+      </c>
+      <c r="F47" s="134" t="s">
         <v>766</v>
-      </c>
-      <c r="F47" s="134" t="s">
-        <v>767</v>
       </c>
       <c r="G47" s="140"/>
       <c r="H47" s="136">
@@ -32942,11 +32900,11 @@
         <v>444</v>
       </c>
       <c r="AB47" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC47" s="70"/>
     </row>
-    <row r="48" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" ht="76.5" customHeight="1">
       <c r="A48" s="132">
         <v>41</v>
       </c>
@@ -32960,10 +32918,10 @@
         <v>200742</v>
       </c>
       <c r="E48" s="134" t="s">
+        <v>760</v>
+      </c>
+      <c r="F48" s="134" t="s">
         <v>761</v>
-      </c>
-      <c r="F48" s="134" t="s">
-        <v>762</v>
       </c>
       <c r="G48" s="140"/>
       <c r="H48" s="136">
@@ -33034,11 +32992,11 @@
         <v>568</v>
       </c>
       <c r="AB48" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC48" s="70"/>
     </row>
-    <row r="49" spans="1:29" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:29" ht="76.5" customHeight="1">
       <c r="A49" s="139">
         <v>42</v>
       </c>
@@ -33052,10 +33010,10 @@
         <v>200743</v>
       </c>
       <c r="E49" s="134" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F49" s="134" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G49" s="140"/>
       <c r="H49" s="136">
@@ -33126,27 +33084,27 @@
         <v>491</v>
       </c>
       <c r="AB49" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC49" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="W4:Y4"/>
+    <mergeCell ref="T4:V4"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="A3:AC3"/>
+    <mergeCell ref="A2:AC2"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
     <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="A3:AC3"/>
-    <mergeCell ref="A2:AC2"/>
-    <mergeCell ref="A1:AC1"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="W4:Y4"/>
   </mergeCells>
   <conditionalFormatting sqref="Y8:Y49">
     <cfRule type="cellIs" dxfId="37" priority="29" stopIfTrue="1" operator="lessThan">
@@ -33192,195 +33150,195 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView topLeftCell="F16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D21" sqref="A21:IV21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="3" max="4" width="27.109375" customWidth="1"/>
+    <col min="5" max="5" width="33.109375" customWidth="1"/>
     <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="28" max="28" width="13.140625" customWidth="1"/>
-    <col min="29" max="29" width="16.28515625" customWidth="1"/>
-    <col min="30" max="30" width="17.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="28" max="28" width="13.109375" customWidth="1"/>
+    <col min="29" max="29" width="16.33203125" customWidth="1"/>
+    <col min="30" max="30" width="17.33203125" customWidth="1"/>
     <col min="31" max="31" width="22" customWidth="1"/>
-    <col min="32" max="32" width="28.42578125" customWidth="1"/>
+    <col min="32" max="32" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="175" t="s">
+    <row r="1" spans="1:32" ht="70.5" customHeight="1">
+      <c r="A1" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="175"/>
-      <c r="F1" s="175"/>
-      <c r="G1" s="175"/>
-      <c r="H1" s="175"/>
-      <c r="I1" s="175"/>
-      <c r="J1" s="175"/>
-      <c r="K1" s="175"/>
-      <c r="L1" s="175"/>
-      <c r="M1" s="175"/>
-      <c r="N1" s="175"/>
-      <c r="O1" s="175"/>
-      <c r="P1" s="175"/>
-      <c r="Q1" s="175"/>
-      <c r="R1" s="175"/>
-      <c r="S1" s="175"/>
-      <c r="T1" s="175"/>
-      <c r="U1" s="175"/>
-      <c r="V1" s="175"/>
-      <c r="W1" s="175"/>
-      <c r="X1" s="175"/>
-      <c r="Y1" s="175"/>
-      <c r="Z1" s="175"/>
-      <c r="AA1" s="175"/>
-      <c r="AB1" s="175"/>
-      <c r="AC1" s="175"/>
-      <c r="AD1" s="175"/>
-      <c r="AE1" s="175"/>
-      <c r="AF1" s="175"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="173"/>
+      <c r="M1" s="173"/>
+      <c r="N1" s="173"/>
+      <c r="O1" s="173"/>
+      <c r="P1" s="173"/>
+      <c r="Q1" s="173"/>
+      <c r="R1" s="173"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="173"/>
+      <c r="AB1" s="173"/>
+      <c r="AC1" s="173"/>
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="173"/>
     </row>
-    <row r="2" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="175" t="s">
+    <row r="2" spans="1:32" ht="70.5" customHeight="1">
+      <c r="A2" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
-      <c r="F2" s="175"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
-      <c r="M2" s="175"/>
-      <c r="N2" s="175"/>
-      <c r="O2" s="175"/>
-      <c r="P2" s="175"/>
-      <c r="Q2" s="175"/>
-      <c r="R2" s="175"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="175"/>
-      <c r="U2" s="175"/>
-      <c r="V2" s="175"/>
-      <c r="W2" s="175"/>
-      <c r="X2" s="175"/>
-      <c r="Y2" s="175"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="175"/>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="175"/>
-      <c r="AD2" s="175"/>
-      <c r="AE2" s="175"/>
-      <c r="AF2" s="175"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="173"/>
+      <c r="E2" s="173"/>
+      <c r="F2" s="173"/>
+      <c r="G2" s="173"/>
+      <c r="H2" s="173"/>
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="173"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="173"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="173"/>
+      <c r="Z2" s="173"/>
+      <c r="AA2" s="173"/>
+      <c r="AB2" s="173"/>
+      <c r="AC2" s="173"/>
+      <c r="AD2" s="173"/>
+      <c r="AE2" s="173"/>
+      <c r="AF2" s="173"/>
     </row>
-    <row r="3" spans="1:32" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="176" t="s">
-        <v>806</v>
-      </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="176"/>
-      <c r="H3" s="176"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="176"/>
-      <c r="K3" s="176"/>
-      <c r="L3" s="176"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="176"/>
-      <c r="O3" s="176"/>
-      <c r="P3" s="176"/>
-      <c r="Q3" s="176"/>
-      <c r="R3" s="176"/>
-      <c r="S3" s="176"/>
-      <c r="T3" s="176"/>
-      <c r="U3" s="176"/>
-      <c r="V3" s="176"/>
-      <c r="W3" s="176"/>
-      <c r="X3" s="176"/>
-      <c r="Y3" s="176"/>
-      <c r="Z3" s="176"/>
-      <c r="AA3" s="176"/>
-      <c r="AB3" s="176"/>
-      <c r="AC3" s="176"/>
-      <c r="AD3" s="176"/>
-      <c r="AE3" s="176"/>
-      <c r="AF3" s="176"/>
+    <row r="3" spans="1:32" ht="70.5" customHeight="1">
+      <c r="A3" s="174" t="s">
+        <v>805</v>
+      </c>
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="174"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="174"/>
+      <c r="AD3" s="174"/>
+      <c r="AE3" s="174"/>
+      <c r="AF3" s="174"/>
     </row>
-    <row r="4" spans="1:32" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="165" t="s">
+    <row r="4" spans="1:32" ht="144.75" customHeight="1">
+      <c r="A4" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="165" t="s">
+      <c r="D4" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="167" t="s">
+      <c r="E4" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="167" t="s">
+      <c r="F4" s="168" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="169" t="s">
+      <c r="H4" s="163" t="s">
+        <v>781</v>
+      </c>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163" t="s">
+        <v>793</v>
+      </c>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163" t="s">
         <v>782</v>
       </c>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169" t="s">
-        <v>794</v>
-      </c>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169" t="s">
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="170" t="s">
         <v>783</v>
       </c>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="172" t="s">
+      <c r="R4" s="171"/>
+      <c r="S4" s="172"/>
+      <c r="T4" s="163" t="s">
         <v>784</v>
       </c>
-      <c r="R4" s="173"/>
-      <c r="S4" s="174"/>
-      <c r="T4" s="169" t="s">
+      <c r="U4" s="163"/>
+      <c r="V4" s="163"/>
+      <c r="W4" s="170" t="s">
+        <v>796</v>
+      </c>
+      <c r="X4" s="171"/>
+      <c r="Y4" s="172"/>
+      <c r="Z4" s="163" t="s">
         <v>785</v>
       </c>
-      <c r="U4" s="169"/>
-      <c r="V4" s="169"/>
-      <c r="W4" s="172" t="s">
-        <v>797</v>
-      </c>
-      <c r="X4" s="173"/>
-      <c r="Y4" s="174"/>
-      <c r="Z4" s="169" t="s">
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="163"/>
+      <c r="AC4" s="153" t="s">
         <v>786</v>
-      </c>
-      <c r="AA4" s="169"/>
-      <c r="AB4" s="169"/>
-      <c r="AC4" s="153" t="s">
-        <v>787</v>
       </c>
       <c r="AD4" s="122" t="s">
         <v>10</v>
@@ -33392,13 +33350,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="165"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
+    <row r="5" spans="1:32" ht="38.25" customHeight="1">
+      <c r="A5" s="164"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
       <c r="G5" s="41"/>
       <c r="H5" s="36" t="s">
         <v>6</v>
@@ -33468,13 +33426,13 @@
       <c r="AE5" s="18"/>
       <c r="AF5" s="18"/>
     </row>
-    <row r="6" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="165"/>
-      <c r="B6" s="165"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
+    <row r="6" spans="1:32" ht="38.25" customHeight="1">
+      <c r="A6" s="164"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
       <c r="G6" s="41" t="s">
         <v>2</v>
       </c>
@@ -33558,13 +33516,13 @@
       <c r="AE6" s="20"/>
       <c r="AF6" s="20"/>
     </row>
-    <row r="7" spans="1:32" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="166"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
+    <row r="7" spans="1:32" ht="15.6">
+      <c r="A7" s="165"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
       <c r="G7" s="42" t="s">
         <v>3</v>
       </c>
@@ -33624,7 +33582,7 @@
       <c r="AE7" s="23"/>
       <c r="AF7" s="23"/>
     </row>
-    <row r="8" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="72" customHeight="1">
       <c r="A8" s="145">
         <v>1</v>
       </c>
@@ -33722,11 +33680,11 @@
         <v>661</v>
       </c>
       <c r="AE8" s="119" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF8" s="144"/>
     </row>
-    <row r="9" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="72" customHeight="1">
       <c r="A9" s="145">
         <v>2</v>
       </c>
@@ -33824,11 +33782,11 @@
         <v>751</v>
       </c>
       <c r="AE9" s="119" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF9" s="143"/>
     </row>
-    <row r="10" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" ht="72" customHeight="1">
       <c r="A10" s="145">
         <v>3</v>
       </c>
@@ -33926,11 +33884,11 @@
         <v>738</v>
       </c>
       <c r="AE10" s="119" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF10" s="143"/>
     </row>
-    <row r="11" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" ht="72" customHeight="1">
       <c r="A11" s="145">
         <v>4</v>
       </c>
@@ -34028,11 +33986,11 @@
         <v>838</v>
       </c>
       <c r="AE11" s="119" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF11" s="143"/>
     </row>
-    <row r="12" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="72" customHeight="1">
       <c r="A12" s="145">
         <v>5</v>
       </c>
@@ -34130,11 +34088,11 @@
         <v>790</v>
       </c>
       <c r="AE12" s="119" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF12" s="143"/>
     </row>
-    <row r="13" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" ht="72" customHeight="1">
       <c r="A13" s="145">
         <v>6</v>
       </c>
@@ -34148,10 +34106,10 @@
         <v>200907</v>
       </c>
       <c r="E13" s="96" t="s">
+        <v>807</v>
+      </c>
+      <c r="F13" s="96" t="s">
         <v>665</v>
-      </c>
-      <c r="F13" s="96" t="s">
-        <v>666</v>
       </c>
       <c r="G13" s="149"/>
       <c r="H13" s="56">
@@ -34232,11 +34190,11 @@
         <v>744</v>
       </c>
       <c r="AE13" s="119" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF13" s="143"/>
     </row>
-    <row r="14" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="72" customHeight="1">
       <c r="A14" s="145">
         <v>7</v>
       </c>
@@ -34250,10 +34208,10 @@
         <v>200908</v>
       </c>
       <c r="E14" s="96" t="s">
+        <v>666</v>
+      </c>
+      <c r="F14" s="96" t="s">
         <v>667</v>
-      </c>
-      <c r="F14" s="96" t="s">
-        <v>668</v>
       </c>
       <c r="G14" s="149"/>
       <c r="H14" s="56">
@@ -34334,11 +34292,11 @@
         <v>774</v>
       </c>
       <c r="AE14" s="119" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF14" s="143"/>
     </row>
-    <row r="15" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" ht="72" customHeight="1">
       <c r="A15" s="145">
         <v>8</v>
       </c>
@@ -34352,10 +34310,10 @@
         <v>200909</v>
       </c>
       <c r="E15" s="96" t="s">
+        <v>668</v>
+      </c>
+      <c r="F15" s="96" t="s">
         <v>669</v>
-      </c>
-      <c r="F15" s="96" t="s">
-        <v>670</v>
       </c>
       <c r="G15" s="149"/>
       <c r="H15" s="56">
@@ -34436,11 +34394,11 @@
         <v>818</v>
       </c>
       <c r="AE15" s="119" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF15" s="143"/>
     </row>
-    <row r="16" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="72" customHeight="1">
       <c r="A16" s="145">
         <v>9</v>
       </c>
@@ -34454,10 +34412,10 @@
         <v>200910</v>
       </c>
       <c r="E16" s="96" t="s">
+        <v>670</v>
+      </c>
+      <c r="F16" s="96" t="s">
         <v>671</v>
-      </c>
-      <c r="F16" s="96" t="s">
-        <v>672</v>
       </c>
       <c r="G16" s="149"/>
       <c r="H16" s="56">
@@ -34538,11 +34496,11 @@
         <v>721</v>
       </c>
       <c r="AE16" s="119" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF16" s="143"/>
     </row>
-    <row r="17" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" ht="72" customHeight="1">
       <c r="A17" s="145">
         <v>10</v>
       </c>
@@ -34556,10 +34514,10 @@
         <v>200911</v>
       </c>
       <c r="E17" s="96" t="s">
+        <v>672</v>
+      </c>
+      <c r="F17" s="96" t="s">
         <v>673</v>
-      </c>
-      <c r="F17" s="96" t="s">
-        <v>674</v>
       </c>
       <c r="G17" s="149"/>
       <c r="H17" s="56">
@@ -34640,11 +34598,11 @@
         <v>779</v>
       </c>
       <c r="AE17" s="119" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF17" s="143"/>
     </row>
-    <row r="18" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" ht="72" customHeight="1">
       <c r="A18" s="145">
         <v>11</v>
       </c>
@@ -34658,10 +34616,10 @@
         <v>200913</v>
       </c>
       <c r="E18" s="96" t="s">
+        <v>674</v>
+      </c>
+      <c r="F18" s="96" t="s">
         <v>675</v>
-      </c>
-      <c r="F18" s="96" t="s">
-        <v>676</v>
       </c>
       <c r="G18" s="149"/>
       <c r="H18" s="56">
@@ -34742,11 +34700,11 @@
         <v>755</v>
       </c>
       <c r="AE18" s="119" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF18" s="144"/>
     </row>
-    <row r="19" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" ht="72" customHeight="1">
       <c r="A19" s="145">
         <v>12</v>
       </c>
@@ -34760,10 +34718,10 @@
         <v>200915</v>
       </c>
       <c r="E19" s="96" t="s">
+        <v>676</v>
+      </c>
+      <c r="F19" s="96" t="s">
         <v>677</v>
-      </c>
-      <c r="F19" s="96" t="s">
-        <v>678</v>
       </c>
       <c r="G19" s="149"/>
       <c r="H19" s="56">
@@ -34844,11 +34802,11 @@
         <v>756</v>
       </c>
       <c r="AE19" s="119" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF19" s="143"/>
     </row>
-    <row r="20" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" ht="72" customHeight="1">
       <c r="A20" s="145">
         <v>13</v>
       </c>
@@ -34862,10 +34820,10 @@
         <v>200917</v>
       </c>
       <c r="E20" s="96" t="s">
+        <v>678</v>
+      </c>
+      <c r="F20" s="96" t="s">
         <v>679</v>
-      </c>
-      <c r="F20" s="96" t="s">
-        <v>680</v>
       </c>
       <c r="G20" s="149"/>
       <c r="H20" s="56">
@@ -34946,11 +34904,11 @@
         <v>845</v>
       </c>
       <c r="AE20" s="119" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF20" s="143"/>
     </row>
-    <row r="21" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" ht="72" customHeight="1">
       <c r="A21" s="145">
         <v>14</v>
       </c>
@@ -34964,10 +34922,10 @@
         <v>200918</v>
       </c>
       <c r="E21" s="96" t="s">
+        <v>680</v>
+      </c>
+      <c r="F21" s="96" t="s">
         <v>681</v>
-      </c>
-      <c r="F21" s="96" t="s">
-        <v>682</v>
       </c>
       <c r="G21" s="149"/>
       <c r="H21" s="56">
@@ -35048,11 +35006,11 @@
         <v>762</v>
       </c>
       <c r="AE21" s="119" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF21" s="143"/>
     </row>
-    <row r="22" spans="1:32" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" ht="72" customHeight="1">
       <c r="A22" s="145">
         <v>15</v>
       </c>
@@ -35066,10 +35024,10 @@
         <v>200919</v>
       </c>
       <c r="E22" s="96" t="s">
+        <v>682</v>
+      </c>
+      <c r="F22" s="96" t="s">
         <v>683</v>
-      </c>
-      <c r="F22" s="96" t="s">
-        <v>684</v>
       </c>
       <c r="G22" s="149"/>
       <c r="H22" s="56">
@@ -35150,17 +35108,12 @@
         <v>715</v>
       </c>
       <c r="AE22" s="119" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF22" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
-    <mergeCell ref="T4:V4"/>
     <mergeCell ref="W4:Y4"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="A2:AF2"/>
@@ -35172,6 +35125,11 @@
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="Q4:S4"/>
+    <mergeCell ref="T4:V4"/>
   </mergeCells>
   <conditionalFormatting sqref="AB8:AB22 Y8:Y22">
     <cfRule type="cellIs" dxfId="30" priority="18" stopIfTrue="1" operator="lessThan">
@@ -35243,196 +35201,196 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF57"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="A13" sqref="A13:IV13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="37.88671875" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="28" width="10.28515625" customWidth="1"/>
-    <col min="29" max="29" width="18.28515625" customWidth="1"/>
+    <col min="8" max="28" width="10.33203125" customWidth="1"/>
+    <col min="29" max="29" width="18.33203125" customWidth="1"/>
     <col min="30" max="30" width="20" customWidth="1"/>
-    <col min="31" max="31" width="30.7109375" customWidth="1"/>
-    <col min="32" max="32" width="33.7109375" customWidth="1"/>
+    <col min="31" max="31" width="30.6640625" customWidth="1"/>
+    <col min="32" max="32" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="183" t="s">
+    <row r="1" spans="1:32" ht="63.75" customHeight="1">
+      <c r="A1" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="183"/>
-      <c r="T1" s="183"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
-      <c r="X1" s="183"/>
-      <c r="Y1" s="183"/>
-      <c r="Z1" s="183"/>
-      <c r="AA1" s="183"/>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="183"/>
-      <c r="AD1" s="183"/>
-      <c r="AE1" s="183"/>
-      <c r="AF1" s="183"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="184"/>
+      <c r="O1" s="184"/>
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="184"/>
+      <c r="S1" s="184"/>
+      <c r="T1" s="184"/>
+      <c r="U1" s="184"/>
+      <c r="V1" s="184"/>
+      <c r="W1" s="184"/>
+      <c r="X1" s="184"/>
+      <c r="Y1" s="184"/>
+      <c r="Z1" s="184"/>
+      <c r="AA1" s="184"/>
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="184"/>
+      <c r="AD1" s="184"/>
+      <c r="AE1" s="184"/>
+      <c r="AF1" s="184"/>
     </row>
-    <row r="2" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="183" t="s">
+    <row r="2" spans="1:32" ht="63.75" customHeight="1">
+      <c r="A2" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="183"/>
-      <c r="S2" s="183"/>
-      <c r="T2" s="183"/>
-      <c r="U2" s="183"/>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="183"/>
-      <c r="Z2" s="183"/>
-      <c r="AA2" s="183"/>
-      <c r="AB2" s="183"/>
-      <c r="AC2" s="183"/>
-      <c r="AD2" s="183"/>
-      <c r="AE2" s="183"/>
-      <c r="AF2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="184"/>
+      <c r="S2" s="184"/>
+      <c r="T2" s="184"/>
+      <c r="U2" s="184"/>
+      <c r="V2" s="184"/>
+      <c r="W2" s="184"/>
+      <c r="X2" s="184"/>
+      <c r="Y2" s="184"/>
+      <c r="Z2" s="184"/>
+      <c r="AA2" s="184"/>
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="184"/>
+      <c r="AD2" s="184"/>
+      <c r="AE2" s="184"/>
+      <c r="AF2" s="184"/>
     </row>
-    <row r="3" spans="1:32" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="185" t="s">
-        <v>773</v>
-      </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="185"/>
-      <c r="M3" s="185"/>
-      <c r="N3" s="185"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="185"/>
-      <c r="Q3" s="185"/>
-      <c r="R3" s="185"/>
-      <c r="S3" s="185"/>
-      <c r="T3" s="185"/>
-      <c r="U3" s="185"/>
-      <c r="V3" s="185"/>
-      <c r="W3" s="185"/>
-      <c r="X3" s="185"/>
-      <c r="Y3" s="185"/>
-      <c r="Z3" s="185"/>
-      <c r="AA3" s="185"/>
-      <c r="AB3" s="185"/>
-      <c r="AC3" s="185"/>
-      <c r="AD3" s="185"/>
-      <c r="AE3" s="185"/>
-      <c r="AF3" s="185"/>
+    <row r="3" spans="1:32" ht="63.75" customHeight="1">
+      <c r="A3" s="183" t="s">
+        <v>772</v>
+      </c>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="183"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="183"/>
+      <c r="AD3" s="183"/>
+      <c r="AE3" s="183"/>
+      <c r="AF3" s="183"/>
     </row>
-    <row r="4" spans="1:32" ht="181.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="179" t="s">
+    <row r="4" spans="1:32" ht="181.5" customHeight="1">
+      <c r="A4" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="179" t="s">
+      <c r="B4" s="181" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="179" t="s">
+      <c r="C4" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="179" t="s">
+      <c r="D4" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="181" t="s">
+      <c r="E4" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="181" t="s">
+      <c r="F4" s="179" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="169" t="s">
+      <c r="H4" s="163" t="s">
+        <v>781</v>
+      </c>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163" t="s">
+        <v>794</v>
+      </c>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163" t="s">
         <v>782</v>
       </c>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169" t="s">
-        <v>795</v>
-      </c>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169" t="s">
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="170" t="s">
         <v>783</v>
       </c>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="172" t="s">
+      <c r="R4" s="171"/>
+      <c r="S4" s="172"/>
+      <c r="T4" s="163" t="s">
         <v>784</v>
       </c>
-      <c r="R4" s="173"/>
-      <c r="S4" s="174"/>
-      <c r="T4" s="169" t="s">
+      <c r="U4" s="163"/>
+      <c r="V4" s="163"/>
+      <c r="W4" s="170" t="s">
+        <v>796</v>
+      </c>
+      <c r="X4" s="171"/>
+      <c r="Y4" s="172"/>
+      <c r="Z4" s="163" t="s">
         <v>785</v>
       </c>
-      <c r="U4" s="169"/>
-      <c r="V4" s="169"/>
-      <c r="W4" s="172" t="s">
-        <v>797</v>
-      </c>
-      <c r="X4" s="173"/>
-      <c r="Y4" s="174"/>
-      <c r="Z4" s="169" t="s">
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="163"/>
+      <c r="AC4" s="152" t="s">
         <v>786</v>
-      </c>
-      <c r="AA4" s="169"/>
-      <c r="AB4" s="169"/>
-      <c r="AC4" s="152" t="s">
-        <v>787</v>
       </c>
       <c r="AD4" s="122" t="s">
         <v>10</v>
@@ -35444,13 +35402,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="179"/>
-      <c r="B5" s="179"/>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
+    <row r="5" spans="1:32" ht="39" customHeight="1">
+      <c r="A5" s="181"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
       <c r="G5" s="5"/>
       <c r="H5" s="36" t="s">
         <v>6</v>
@@ -35520,13 +35478,13 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="34"/>
     </row>
-    <row r="6" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="179"/>
-      <c r="B6" s="179"/>
-      <c r="C6" s="179"/>
-      <c r="D6" s="179"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
+    <row r="6" spans="1:32" ht="39" customHeight="1">
+      <c r="A6" s="181"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="179"/>
+      <c r="F6" s="179"/>
       <c r="G6" s="63" t="s">
         <v>2</v>
       </c>
@@ -35610,13 +35568,13 @@
       <c r="AE6" s="4"/>
       <c r="AF6" s="27"/>
     </row>
-    <row r="7" spans="1:32" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="180"/>
-      <c r="B7" s="180"/>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="182"/>
-      <c r="F7" s="182"/>
+    <row r="7" spans="1:32" ht="39" customHeight="1">
+      <c r="A7" s="182"/>
+      <c r="B7" s="182"/>
+      <c r="C7" s="182"/>
+      <c r="D7" s="182"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
       <c r="G7" s="65" t="s">
         <v>3</v>
       </c>
@@ -35676,7 +35634,7 @@
       <c r="AE7" s="6"/>
       <c r="AF7" s="35"/>
     </row>
-    <row r="8" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A8" s="44">
         <v>1</v>
       </c>
@@ -35774,11 +35732,11 @@
         <v>683</v>
       </c>
       <c r="AE8" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF8" s="47"/>
     </row>
-    <row r="9" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A9" s="44">
         <v>2</v>
       </c>
@@ -35876,11 +35834,11 @@
         <v>763</v>
       </c>
       <c r="AE9" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF9" s="47"/>
     </row>
-    <row r="10" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A10" s="44">
         <v>3</v>
       </c>
@@ -35978,11 +35936,11 @@
         <v>715</v>
       </c>
       <c r="AE10" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF10" s="47"/>
     </row>
-    <row r="11" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A11" s="44">
         <v>4</v>
       </c>
@@ -36080,11 +36038,11 @@
         <v>724</v>
       </c>
       <c r="AE11" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF11" s="47"/>
     </row>
-    <row r="12" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A12" s="44">
         <v>5</v>
       </c>
@@ -36182,11 +36140,11 @@
         <v>753</v>
       </c>
       <c r="AE12" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF12" s="47"/>
     </row>
-    <row r="13" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A13" s="44">
         <v>6</v>
       </c>
@@ -36284,11 +36242,11 @@
         <v>674</v>
       </c>
       <c r="AE13" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF13" s="47"/>
     </row>
-    <row r="14" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A14" s="44">
         <v>7</v>
       </c>
@@ -36386,11 +36344,11 @@
         <v>748</v>
       </c>
       <c r="AE14" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF14" s="47"/>
     </row>
-    <row r="15" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A15" s="44">
         <v>8</v>
       </c>
@@ -36488,11 +36446,11 @@
         <v>742</v>
       </c>
       <c r="AE15" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF15" s="47"/>
     </row>
-    <row r="16" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A16" s="44">
         <v>9</v>
       </c>
@@ -36590,11 +36548,11 @@
         <v>783</v>
       </c>
       <c r="AE16" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF16" s="47"/>
     </row>
-    <row r="17" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A17" s="44">
         <v>10</v>
       </c>
@@ -36692,11 +36650,11 @@
         <v>727</v>
       </c>
       <c r="AE17" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF17" s="47"/>
     </row>
-    <row r="18" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A18" s="44">
         <v>11</v>
       </c>
@@ -36794,11 +36752,11 @@
         <v>698</v>
       </c>
       <c r="AE18" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF18" s="47"/>
     </row>
-    <row r="19" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A19" s="44">
         <v>12</v>
       </c>
@@ -36896,11 +36854,11 @@
         <v>769</v>
       </c>
       <c r="AE19" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF19" s="47"/>
     </row>
-    <row r="20" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A20" s="44">
         <v>13</v>
       </c>
@@ -36998,11 +36956,11 @@
         <v>721</v>
       </c>
       <c r="AE20" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF20" s="47"/>
     </row>
-    <row r="21" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A21" s="44">
         <v>14</v>
       </c>
@@ -37100,11 +37058,11 @@
         <v>762</v>
       </c>
       <c r="AE21" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF21" s="47"/>
     </row>
-    <row r="22" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A22" s="44">
         <v>15</v>
       </c>
@@ -37202,11 +37160,11 @@
         <v>694</v>
       </c>
       <c r="AE22" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF22" s="47"/>
     </row>
-    <row r="23" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A23" s="44">
         <v>16</v>
       </c>
@@ -37304,11 +37262,11 @@
         <v>599</v>
       </c>
       <c r="AE23" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF23" s="47"/>
     </row>
-    <row r="24" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A24" s="44">
         <v>17</v>
       </c>
@@ -37406,11 +37364,11 @@
         <v>739</v>
       </c>
       <c r="AE24" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF24" s="47"/>
     </row>
-    <row r="25" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A25" s="44">
         <v>18</v>
       </c>
@@ -37508,11 +37466,11 @@
         <v>781</v>
       </c>
       <c r="AE25" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF25" s="47"/>
     </row>
-    <row r="26" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A26" s="44">
         <v>19</v>
       </c>
@@ -37610,11 +37568,11 @@
         <v>662</v>
       </c>
       <c r="AE26" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF26" s="47"/>
     </row>
-    <row r="27" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A27" s="44">
         <v>20</v>
       </c>
@@ -37712,11 +37670,11 @@
         <v>739</v>
       </c>
       <c r="AE27" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF27" s="47"/>
     </row>
-    <row r="28" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A28" s="44">
         <v>21</v>
       </c>
@@ -37814,11 +37772,11 @@
         <v>732</v>
       </c>
       <c r="AE28" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF28" s="47"/>
     </row>
-    <row r="29" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A29" s="44">
         <v>22</v>
       </c>
@@ -37916,11 +37874,11 @@
         <v>733</v>
       </c>
       <c r="AE29" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF29" s="47"/>
     </row>
-    <row r="30" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A30" s="44">
         <v>23</v>
       </c>
@@ -38018,11 +37976,11 @@
         <v>691</v>
       </c>
       <c r="AE30" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF30" s="47"/>
     </row>
-    <row r="31" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A31" s="44">
         <v>24</v>
       </c>
@@ -38120,11 +38078,11 @@
         <v>800</v>
       </c>
       <c r="AE31" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF31" s="47"/>
     </row>
-    <row r="32" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A32" s="44">
         <v>25</v>
       </c>
@@ -38222,11 +38180,11 @@
         <v>740</v>
       </c>
       <c r="AE32" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF32" s="97"/>
     </row>
-    <row r="33" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A33" s="44">
         <v>26</v>
       </c>
@@ -38324,11 +38282,11 @@
         <v>714</v>
       </c>
       <c r="AE33" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF33" s="97"/>
     </row>
-    <row r="34" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A34" s="44">
         <v>27</v>
       </c>
@@ -38426,11 +38384,11 @@
         <v>594</v>
       </c>
       <c r="AE34" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF34" s="47"/>
     </row>
-    <row r="35" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A35" s="44">
         <v>28</v>
       </c>
@@ -38528,11 +38486,11 @@
         <v>656</v>
       </c>
       <c r="AE35" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF35" s="47"/>
     </row>
-    <row r="36" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A36" s="44">
         <v>29</v>
       </c>
@@ -38630,11 +38588,11 @@
         <v>687</v>
       </c>
       <c r="AE36" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF36" s="47"/>
     </row>
-    <row r="37" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A37" s="44">
         <v>30</v>
       </c>
@@ -38732,11 +38690,11 @@
         <v>697</v>
       </c>
       <c r="AE37" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF37" s="47"/>
     </row>
-    <row r="38" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A38" s="44">
         <v>31</v>
       </c>
@@ -38834,11 +38792,11 @@
         <v>738</v>
       </c>
       <c r="AE38" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF38" s="47"/>
     </row>
-    <row r="39" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A39" s="44">
         <v>32</v>
       </c>
@@ -38936,11 +38894,11 @@
         <v>736</v>
       </c>
       <c r="AE39" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF39" s="47"/>
     </row>
-    <row r="40" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A40" s="44">
         <v>33</v>
       </c>
@@ -39038,11 +38996,11 @@
         <v>806</v>
       </c>
       <c r="AE40" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF40" s="47"/>
     </row>
-    <row r="41" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A41" s="44">
         <v>34</v>
       </c>
@@ -39140,11 +39098,11 @@
         <v>681</v>
       </c>
       <c r="AE41" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF41" s="47"/>
     </row>
-    <row r="42" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A42" s="44">
         <v>35</v>
       </c>
@@ -39242,11 +39200,11 @@
         <v>737</v>
       </c>
       <c r="AE42" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF42" s="47"/>
     </row>
-    <row r="43" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A43" s="44">
         <v>36</v>
       </c>
@@ -39344,11 +39302,11 @@
         <v>692</v>
       </c>
       <c r="AE43" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF43" s="47"/>
     </row>
-    <row r="44" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A44" s="44">
         <v>37</v>
       </c>
@@ -39446,11 +39404,11 @@
         <v>714</v>
       </c>
       <c r="AE44" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF44" s="47"/>
     </row>
-    <row r="45" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A45" s="44">
         <v>38</v>
       </c>
@@ -39548,11 +39506,11 @@
         <v>668</v>
       </c>
       <c r="AE45" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF45" s="47"/>
     </row>
-    <row r="46" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A46" s="44">
         <v>39</v>
       </c>
@@ -39650,11 +39608,11 @@
         <v>763</v>
       </c>
       <c r="AE46" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF46" s="47"/>
     </row>
-    <row r="47" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A47" s="44">
         <v>40</v>
       </c>
@@ -39752,11 +39710,11 @@
         <v>729</v>
       </c>
       <c r="AE47" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF47" s="47"/>
     </row>
-    <row r="48" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A48" s="44">
         <v>41</v>
       </c>
@@ -39854,11 +39812,11 @@
         <v>623</v>
       </c>
       <c r="AE48" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF48" s="47"/>
     </row>
-    <row r="49" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" s="43" customFormat="1" ht="74.25" customHeight="1">
       <c r="A49" s="44">
         <v>42</v>
       </c>
@@ -39956,11 +39914,11 @@
         <v>766</v>
       </c>
       <c r="AE49" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF49" s="47"/>
     </row>
-    <row r="50" spans="1:32" ht="74.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:32" ht="74.25" customHeight="1">
       <c r="A50" s="44">
         <v>43</v>
       </c>
@@ -40058,11 +40016,11 @@
         <v>708</v>
       </c>
       <c r="AE50" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF50" s="47"/>
     </row>
-    <row r="51" spans="1:32" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" ht="74.25" customHeight="1">
       <c r="A51" s="44">
         <v>44</v>
       </c>
@@ -40160,13 +40118,13 @@
         <v>622</v>
       </c>
       <c r="AE51" s="49" t="s">
+        <v>791</v>
+      </c>
+      <c r="AF51" s="47" t="s">
         <v>792</v>
       </c>
-      <c r="AF51" s="47" t="s">
-        <v>793</v>
-      </c>
     </row>
-    <row r="52" spans="1:32" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" ht="74.25" customHeight="1">
       <c r="A52" s="44">
         <v>45</v>
       </c>
@@ -40264,11 +40222,11 @@
         <v>657</v>
       </c>
       <c r="AE52" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF52" s="83"/>
     </row>
-    <row r="53" spans="1:32" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" ht="74.25" customHeight="1">
       <c r="A53" s="44">
         <v>46</v>
       </c>
@@ -40366,11 +40324,11 @@
         <v>703</v>
       </c>
       <c r="AE53" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF53" s="47"/>
     </row>
-    <row r="54" spans="1:32" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" ht="74.25" customHeight="1">
       <c r="A54" s="44">
         <v>47</v>
       </c>
@@ -40468,25 +40426,18 @@
         <v>760</v>
       </c>
       <c r="AE54" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF54" s="47"/>
     </row>
-    <row r="57" spans="1:32" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="184"/>
-      <c r="C57" s="184"/>
-      <c r="D57" s="184"/>
-      <c r="E57" s="184"/>
+    <row r="57" spans="1:32" ht="39.75" customHeight="1">
+      <c r="B57" s="185"/>
+      <c r="C57" s="185"/>
+      <c r="D57" s="185"/>
+      <c r="E57" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A3:AF3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
     <mergeCell ref="A2:AF2"/>
     <mergeCell ref="A1:AF1"/>
     <mergeCell ref="B57:E57"/>
@@ -40497,6 +40448,13 @@
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="F4:F7"/>
     <mergeCell ref="C4:C7"/>
+    <mergeCell ref="A3:AF3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
   </mergeCells>
   <conditionalFormatting sqref="J8:J54 M8:M54 P8:P54">
     <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="lessThan">
@@ -40552,192 +40510,192 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF68"/>
   <sheetViews>
     <sheetView topLeftCell="D28" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="D30" sqref="A30:IV30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="4" width="22.42578125" customWidth="1"/>
+    <col min="2" max="4" width="22.44140625" customWidth="1"/>
     <col min="5" max="6" width="39" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="28" width="10.42578125" customWidth="1"/>
-    <col min="29" max="29" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="28" width="10.44140625" customWidth="1"/>
+    <col min="29" max="29" width="16.5546875" customWidth="1"/>
     <col min="30" max="30" width="18" customWidth="1"/>
-    <col min="31" max="31" width="23.7109375" customWidth="1"/>
-    <col min="32" max="32" width="32.42578125" customWidth="1"/>
+    <col min="31" max="31" width="23.6640625" customWidth="1"/>
+    <col min="32" max="32" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="183" t="s">
+    <row r="1" spans="1:32" ht="58.5" customHeight="1">
+      <c r="A1" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="183"/>
-      <c r="K1" s="183"/>
-      <c r="L1" s="183"/>
-      <c r="M1" s="183"/>
-      <c r="N1" s="183"/>
-      <c r="O1" s="183"/>
-      <c r="P1" s="183"/>
-      <c r="Q1" s="183"/>
-      <c r="R1" s="183"/>
-      <c r="S1" s="183"/>
-      <c r="T1" s="183"/>
-      <c r="U1" s="183"/>
-      <c r="V1" s="183"/>
-      <c r="W1" s="183"/>
-      <c r="X1" s="183"/>
-      <c r="Y1" s="183"/>
-      <c r="Z1" s="183"/>
-      <c r="AA1" s="183"/>
-      <c r="AB1" s="183"/>
-      <c r="AC1" s="183"/>
-      <c r="AD1" s="183"/>
-      <c r="AE1" s="183"/>
-      <c r="AF1" s="183"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="184"/>
+      <c r="O1" s="184"/>
+      <c r="P1" s="184"/>
+      <c r="Q1" s="184"/>
+      <c r="R1" s="184"/>
+      <c r="S1" s="184"/>
+      <c r="T1" s="184"/>
+      <c r="U1" s="184"/>
+      <c r="V1" s="184"/>
+      <c r="W1" s="184"/>
+      <c r="X1" s="184"/>
+      <c r="Y1" s="184"/>
+      <c r="Z1" s="184"/>
+      <c r="AA1" s="184"/>
+      <c r="AB1" s="184"/>
+      <c r="AC1" s="184"/>
+      <c r="AD1" s="184"/>
+      <c r="AE1" s="184"/>
+      <c r="AF1" s="184"/>
     </row>
-    <row r="2" spans="1:32" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="183" t="s">
+    <row r="2" spans="1:32" ht="58.5" customHeight="1">
+      <c r="A2" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="183"/>
-      <c r="F2" s="183"/>
-      <c r="G2" s="183"/>
-      <c r="H2" s="183"/>
-      <c r="I2" s="183"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="183"/>
-      <c r="N2" s="183"/>
-      <c r="O2" s="183"/>
-      <c r="P2" s="183"/>
-      <c r="Q2" s="183"/>
-      <c r="R2" s="183"/>
-      <c r="S2" s="183"/>
-      <c r="T2" s="183"/>
-      <c r="U2" s="183"/>
-      <c r="V2" s="183"/>
-      <c r="W2" s="183"/>
-      <c r="X2" s="183"/>
-      <c r="Y2" s="183"/>
-      <c r="Z2" s="183"/>
-      <c r="AA2" s="183"/>
-      <c r="AB2" s="183"/>
-      <c r="AC2" s="183"/>
-      <c r="AD2" s="183"/>
-      <c r="AE2" s="183"/>
-      <c r="AF2" s="183"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="184"/>
+      <c r="S2" s="184"/>
+      <c r="T2" s="184"/>
+      <c r="U2" s="184"/>
+      <c r="V2" s="184"/>
+      <c r="W2" s="184"/>
+      <c r="X2" s="184"/>
+      <c r="Y2" s="184"/>
+      <c r="Z2" s="184"/>
+      <c r="AA2" s="184"/>
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="184"/>
+      <c r="AD2" s="184"/>
+      <c r="AE2" s="184"/>
+      <c r="AF2" s="184"/>
     </row>
-    <row r="3" spans="1:32" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="58.5" customHeight="1">
       <c r="A3" s="186" t="s">
-        <v>805</v>
-      </c>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="185"/>
-      <c r="M3" s="185"/>
-      <c r="N3" s="185"/>
-      <c r="O3" s="185"/>
-      <c r="P3" s="185"/>
-      <c r="Q3" s="185"/>
-      <c r="R3" s="185"/>
-      <c r="S3" s="185"/>
-      <c r="T3" s="185"/>
-      <c r="U3" s="185"/>
-      <c r="V3" s="185"/>
-      <c r="W3" s="185"/>
-      <c r="X3" s="185"/>
-      <c r="Y3" s="185"/>
-      <c r="Z3" s="185"/>
-      <c r="AA3" s="185"/>
-      <c r="AB3" s="185"/>
-      <c r="AC3" s="185"/>
-      <c r="AD3" s="185"/>
-      <c r="AE3" s="185"/>
-      <c r="AF3" s="185"/>
+        <v>804</v>
+      </c>
+      <c r="B3" s="183"/>
+      <c r="C3" s="183"/>
+      <c r="D3" s="183"/>
+      <c r="E3" s="183"/>
+      <c r="F3" s="183"/>
+      <c r="G3" s="183"/>
+      <c r="H3" s="183"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="183"/>
+      <c r="L3" s="183"/>
+      <c r="M3" s="183"/>
+      <c r="N3" s="183"/>
+      <c r="O3" s="183"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="183"/>
+      <c r="S3" s="183"/>
+      <c r="T3" s="183"/>
+      <c r="U3" s="183"/>
+      <c r="V3" s="183"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="183"/>
+      <c r="Y3" s="183"/>
+      <c r="Z3" s="183"/>
+      <c r="AA3" s="183"/>
+      <c r="AB3" s="183"/>
+      <c r="AC3" s="183"/>
+      <c r="AD3" s="183"/>
+      <c r="AE3" s="183"/>
+      <c r="AF3" s="183"/>
     </row>
-    <row r="4" spans="1:32" ht="180.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="165" t="s">
+    <row r="4" spans="1:32" ht="180.75" customHeight="1">
+      <c r="A4" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="164" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="165" t="s">
+      <c r="D4" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="167" t="s">
+      <c r="E4" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="167" t="s">
+      <c r="F4" s="168" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="169" t="s">
+      <c r="H4" s="163" t="s">
+        <v>773</v>
+      </c>
+      <c r="I4" s="163"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="163" t="s">
+        <v>793</v>
+      </c>
+      <c r="L4" s="163"/>
+      <c r="M4" s="163"/>
+      <c r="N4" s="163" t="s">
         <v>774</v>
       </c>
-      <c r="I4" s="169"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="169" t="s">
-        <v>794</v>
-      </c>
-      <c r="L4" s="169"/>
-      <c r="M4" s="169"/>
-      <c r="N4" s="169" t="s">
+      <c r="O4" s="163"/>
+      <c r="P4" s="163"/>
+      <c r="Q4" s="163" t="s">
         <v>775</v>
       </c>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="169" t="s">
+      <c r="R4" s="163"/>
+      <c r="S4" s="163"/>
+      <c r="T4" s="163" t="s">
         <v>776</v>
       </c>
-      <c r="R4" s="169"/>
-      <c r="S4" s="169"/>
-      <c r="T4" s="169" t="s">
-        <v>777</v>
-      </c>
-      <c r="U4" s="169"/>
-      <c r="V4" s="169"/>
-      <c r="W4" s="169" t="s">
-        <v>804</v>
-      </c>
-      <c r="X4" s="169"/>
-      <c r="Y4" s="169"/>
-      <c r="Z4" s="169" t="s">
+      <c r="U4" s="163"/>
+      <c r="V4" s="163"/>
+      <c r="W4" s="163" t="s">
+        <v>803</v>
+      </c>
+      <c r="X4" s="163"/>
+      <c r="Y4" s="163"/>
+      <c r="Z4" s="163" t="s">
+        <v>778</v>
+      </c>
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="163"/>
+      <c r="AC4" s="153" t="s">
         <v>779</v>
-      </c>
-      <c r="AA4" s="169"/>
-      <c r="AB4" s="169"/>
-      <c r="AC4" s="153" t="s">
-        <v>780</v>
       </c>
       <c r="AD4" s="153" t="s">
         <v>10</v>
@@ -40749,13 +40707,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="165"/>
-      <c r="B5" s="165"/>
-      <c r="C5" s="165"/>
-      <c r="D5" s="165"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
+    <row r="5" spans="1:32" ht="44.25" customHeight="1">
+      <c r="A5" s="164"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
       <c r="G5" s="5"/>
       <c r="H5" s="7" t="s">
         <v>6</v>
@@ -40825,13 +40783,13 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="34"/>
     </row>
-    <row r="6" spans="1:32" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="165"/>
-      <c r="B6" s="165"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
+    <row r="6" spans="1:32" ht="44.25" customHeight="1">
+      <c r="A6" s="164"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="164"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
       <c r="G6" s="63" t="s">
         <v>2</v>
       </c>
@@ -40914,13 +40872,13 @@
       <c r="AE6" s="4"/>
       <c r="AF6" s="27"/>
     </row>
-    <row r="7" spans="1:32" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="166"/>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
+    <row r="7" spans="1:32" ht="38.25" customHeight="1">
+      <c r="A7" s="165"/>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
       <c r="G7" s="65" t="s">
         <v>3</v>
       </c>
@@ -40980,7 +40938,7 @@
       <c r="AE7" s="6"/>
       <c r="AF7" s="35"/>
     </row>
-    <row r="8" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="81" customHeight="1">
       <c r="A8" s="44">
         <v>1</v>
       </c>
@@ -41078,11 +41036,11 @@
         <v>746</v>
       </c>
       <c r="AE8" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF8" s="47"/>
     </row>
-    <row r="9" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="81" customHeight="1">
       <c r="A9" s="44">
         <v>2</v>
       </c>
@@ -41180,11 +41138,11 @@
         <v>738</v>
       </c>
       <c r="AE9" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF9" s="47"/>
     </row>
-    <row r="10" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="81" customHeight="1">
       <c r="A10" s="44">
         <v>3</v>
       </c>
@@ -41282,11 +41240,11 @@
         <v>728</v>
       </c>
       <c r="AE10" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF10" s="47"/>
     </row>
-    <row r="11" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="81" customHeight="1">
       <c r="A11" s="44">
         <v>4</v>
       </c>
@@ -41384,11 +41342,11 @@
         <v>705</v>
       </c>
       <c r="AE11" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF11" s="47"/>
     </row>
-    <row r="12" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="81" customHeight="1">
       <c r="A12" s="44">
         <v>5</v>
       </c>
@@ -41486,11 +41444,11 @@
         <v>767</v>
       </c>
       <c r="AE12" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF12" s="47"/>
     </row>
-    <row r="13" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="81" customHeight="1">
       <c r="A13" s="44">
         <v>6</v>
       </c>
@@ -41588,11 +41546,11 @@
         <v>739</v>
       </c>
       <c r="AE13" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF13" s="47"/>
     </row>
-    <row r="14" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="81" customHeight="1">
       <c r="A14" s="44">
         <v>7</v>
       </c>
@@ -41690,11 +41648,11 @@
         <v>767</v>
       </c>
       <c r="AE14" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF14" s="47"/>
     </row>
-    <row r="15" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="81" customHeight="1">
       <c r="A15" s="44">
         <v>8</v>
       </c>
@@ -41792,11 +41750,11 @@
         <v>710</v>
       </c>
       <c r="AE15" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF15" s="47"/>
     </row>
-    <row r="16" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="81" customHeight="1">
       <c r="A16" s="44">
         <v>9</v>
       </c>
@@ -41894,11 +41852,11 @@
         <v>722</v>
       </c>
       <c r="AE16" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF16" s="47"/>
     </row>
-    <row r="17" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="81" customHeight="1">
       <c r="A17" s="44">
         <v>10</v>
       </c>
@@ -41996,11 +41954,11 @@
         <v>749</v>
       </c>
       <c r="AE17" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF17" s="47"/>
     </row>
-    <row r="18" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="81" customHeight="1">
       <c r="A18" s="44">
         <v>11</v>
       </c>
@@ -42098,11 +42056,11 @@
         <v>734</v>
       </c>
       <c r="AE18" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF18" s="47"/>
     </row>
-    <row r="19" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="81" customHeight="1">
       <c r="A19" s="44">
         <v>12</v>
       </c>
@@ -42200,11 +42158,11 @@
         <v>745</v>
       </c>
       <c r="AE19" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF19" s="47"/>
     </row>
-    <row r="20" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="81" customHeight="1">
       <c r="A20" s="44">
         <v>13</v>
       </c>
@@ -42302,11 +42260,11 @@
         <v>735</v>
       </c>
       <c r="AE20" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF20" s="47"/>
     </row>
-    <row r="21" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="81" customHeight="1">
       <c r="A21" s="44">
         <v>14</v>
       </c>
@@ -42404,11 +42362,11 @@
         <v>736</v>
       </c>
       <c r="AE21" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF21" s="47"/>
     </row>
-    <row r="22" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="81" customHeight="1">
       <c r="A22" s="44">
         <v>15</v>
       </c>
@@ -42469,7 +42427,7 @@
         <v>71</v>
       </c>
       <c r="T22" s="56" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="U22" s="56">
         <v>15</v>
@@ -42506,13 +42464,13 @@
         <v>587</v>
       </c>
       <c r="AE22" s="49" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AF22" s="47" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="81" customHeight="1">
       <c r="A23" s="44">
         <v>16</v>
       </c>
@@ -42610,11 +42568,11 @@
         <v>776</v>
       </c>
       <c r="AE23" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF23" s="47"/>
     </row>
-    <row r="24" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="81" customHeight="1">
       <c r="A24" s="44">
         <v>17</v>
       </c>
@@ -42712,11 +42670,11 @@
         <v>619</v>
       </c>
       <c r="AE24" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF24" s="47"/>
     </row>
-    <row r="25" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" ht="81" customHeight="1">
       <c r="A25" s="44">
         <v>18</v>
       </c>
@@ -42814,11 +42772,11 @@
         <v>697</v>
       </c>
       <c r="AE25" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF25" s="47"/>
     </row>
-    <row r="26" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="81" customHeight="1">
       <c r="A26" s="44">
         <v>19</v>
       </c>
@@ -42916,11 +42874,11 @@
         <v>738</v>
       </c>
       <c r="AE26" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF26" s="47"/>
     </row>
-    <row r="27" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" ht="81" customHeight="1">
       <c r="A27" s="44">
         <v>20</v>
       </c>
@@ -43018,11 +42976,11 @@
         <v>736</v>
       </c>
       <c r="AE27" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF27" s="47"/>
     </row>
-    <row r="28" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" ht="81" customHeight="1">
       <c r="A28" s="44">
         <v>21</v>
       </c>
@@ -43120,11 +43078,11 @@
         <v>772</v>
       </c>
       <c r="AE28" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF28" s="47"/>
     </row>
-    <row r="29" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" ht="81" customHeight="1">
       <c r="A29" s="44">
         <v>22</v>
       </c>
@@ -43222,11 +43180,11 @@
         <v>718</v>
       </c>
       <c r="AE29" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF29" s="47"/>
     </row>
-    <row r="30" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" ht="81" customHeight="1">
       <c r="A30" s="44">
         <v>23</v>
       </c>
@@ -43324,11 +43282,11 @@
         <v>768</v>
       </c>
       <c r="AE30" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF30" s="47"/>
     </row>
-    <row r="31" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" ht="81" customHeight="1">
       <c r="A31" s="44">
         <v>24</v>
       </c>
@@ -43426,11 +43384,11 @@
         <v>746</v>
       </c>
       <c r="AE31" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF31" s="47"/>
     </row>
-    <row r="32" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" ht="81" customHeight="1">
       <c r="A32" s="44">
         <v>25</v>
       </c>
@@ -43528,11 +43486,11 @@
         <v>770</v>
       </c>
       <c r="AE32" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF32" s="47"/>
     </row>
-    <row r="33" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" ht="81" customHeight="1">
       <c r="A33" s="44">
         <v>26</v>
       </c>
@@ -43630,11 +43588,11 @@
         <v>764</v>
       </c>
       <c r="AE33" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF33" s="47"/>
     </row>
-    <row r="34" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" ht="81" customHeight="1">
       <c r="A34" s="44">
         <v>27</v>
       </c>
@@ -43732,11 +43690,11 @@
         <v>743</v>
       </c>
       <c r="AE34" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF34" s="47"/>
     </row>
-    <row r="35" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" ht="81" customHeight="1">
       <c r="A35" s="44">
         <v>28</v>
       </c>
@@ -43834,11 +43792,11 @@
         <v>737</v>
       </c>
       <c r="AE35" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF35" s="47"/>
     </row>
-    <row r="36" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" ht="81" customHeight="1">
       <c r="A36" s="44">
         <v>29</v>
       </c>
@@ -43936,11 +43894,11 @@
         <v>655</v>
       </c>
       <c r="AE36" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF36" s="47"/>
     </row>
-    <row r="37" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" ht="81" customHeight="1">
       <c r="A37" s="44">
         <v>30</v>
       </c>
@@ -44038,11 +43996,11 @@
         <v>623</v>
       </c>
       <c r="AE37" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF37" s="47"/>
     </row>
-    <row r="38" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" ht="81" customHeight="1">
       <c r="A38" s="44">
         <v>31</v>
       </c>
@@ -44140,11 +44098,11 @@
         <v>643</v>
       </c>
       <c r="AE38" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF38" s="47"/>
     </row>
-    <row r="39" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" ht="81" customHeight="1">
       <c r="A39" s="44">
         <v>32</v>
       </c>
@@ -44242,11 +44200,11 @@
         <v>713</v>
       </c>
       <c r="AE39" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF39" s="47"/>
     </row>
-    <row r="40" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" ht="81" customHeight="1">
       <c r="A40" s="44">
         <v>33</v>
       </c>
@@ -44344,11 +44302,11 @@
         <v>657</v>
       </c>
       <c r="AE40" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF40" s="47"/>
     </row>
-    <row r="41" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" ht="81" customHeight="1">
       <c r="A41" s="44">
         <v>34</v>
       </c>
@@ -44446,11 +44404,11 @@
         <v>747</v>
       </c>
       <c r="AE41" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF41" s="47"/>
     </row>
-    <row r="42" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" ht="81" customHeight="1">
       <c r="A42" s="44">
         <v>35</v>
       </c>
@@ -44548,11 +44506,11 @@
         <v>619</v>
       </c>
       <c r="AE42" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF42" s="47"/>
     </row>
-    <row r="43" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" ht="81" customHeight="1">
       <c r="A43" s="44">
         <v>36</v>
       </c>
@@ -44650,11 +44608,11 @@
         <v>734</v>
       </c>
       <c r="AE43" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF43" s="47"/>
     </row>
-    <row r="44" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" ht="81" customHeight="1">
       <c r="A44" s="44">
         <v>37</v>
       </c>
@@ -44752,11 +44710,11 @@
         <v>738</v>
       </c>
       <c r="AE44" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF44" s="47"/>
     </row>
-    <row r="45" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" ht="81" customHeight="1">
       <c r="A45" s="44">
         <v>38</v>
       </c>
@@ -44854,11 +44812,11 @@
         <v>722</v>
       </c>
       <c r="AE45" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF45" s="47"/>
     </row>
-    <row r="46" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" ht="81" customHeight="1">
       <c r="A46" s="44">
         <v>39</v>
       </c>
@@ -44956,11 +44914,11 @@
         <v>756</v>
       </c>
       <c r="AE46" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF46" s="47"/>
     </row>
-    <row r="47" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" ht="81" customHeight="1">
       <c r="A47" s="44">
         <v>40</v>
       </c>
@@ -45058,11 +45016,11 @@
         <v>767</v>
       </c>
       <c r="AE47" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF47" s="47"/>
     </row>
-    <row r="48" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:32" ht="81" customHeight="1">
       <c r="A48" s="44">
         <v>41</v>
       </c>
@@ -45160,11 +45118,11 @@
         <v>778</v>
       </c>
       <c r="AE48" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF48" s="47"/>
     </row>
-    <row r="49" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:32" ht="81" customHeight="1">
       <c r="A49" s="44">
         <v>42</v>
       </c>
@@ -45262,11 +45220,11 @@
         <v>654</v>
       </c>
       <c r="AE49" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF49" s="47"/>
     </row>
-    <row r="50" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:32" ht="81" customHeight="1">
       <c r="A50" s="44">
         <v>43</v>
       </c>
@@ -45364,11 +45322,11 @@
         <v>728</v>
       </c>
       <c r="AE50" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF50" s="47"/>
     </row>
-    <row r="51" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:32" ht="81" customHeight="1">
       <c r="A51" s="44">
         <v>44</v>
       </c>
@@ -45466,11 +45424,11 @@
         <v>725</v>
       </c>
       <c r="AE51" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF51" s="47"/>
     </row>
-    <row r="52" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" ht="81" customHeight="1">
       <c r="A52" s="44">
         <v>45</v>
       </c>
@@ -45568,11 +45526,11 @@
         <v>731</v>
       </c>
       <c r="AE52" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF52" s="47"/>
     </row>
-    <row r="53" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" ht="81" customHeight="1">
       <c r="A53" s="44">
         <v>46</v>
       </c>
@@ -45670,11 +45628,11 @@
         <v>659</v>
       </c>
       <c r="AE53" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF53" s="83"/>
     </row>
-    <row r="54" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" ht="81" customHeight="1">
       <c r="A54" s="44">
         <v>47</v>
       </c>
@@ -45772,11 +45730,11 @@
         <v>748</v>
       </c>
       <c r="AE54" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF54" s="47"/>
     </row>
-    <row r="55" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" ht="81" customHeight="1">
       <c r="A55" s="44">
         <v>48</v>
       </c>
@@ -45874,11 +45832,11 @@
         <v>579</v>
       </c>
       <c r="AE55" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF55" s="47"/>
     </row>
-    <row r="56" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:32" ht="81" customHeight="1">
       <c r="A56" s="44">
         <v>49</v>
       </c>
@@ -45976,11 +45934,11 @@
         <v>727</v>
       </c>
       <c r="AE56" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF56" s="67"/>
     </row>
-    <row r="57" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:32" ht="81" customHeight="1">
       <c r="A57" s="44">
         <v>50</v>
       </c>
@@ -46078,11 +46036,11 @@
         <v>704</v>
       </c>
       <c r="AE57" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF57" s="67"/>
     </row>
-    <row r="58" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:32" ht="81" customHeight="1">
       <c r="A58" s="44">
         <v>51</v>
       </c>
@@ -46180,11 +46138,11 @@
         <v>772</v>
       </c>
       <c r="AE58" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF58" s="67"/>
     </row>
-    <row r="59" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:32" ht="81" customHeight="1">
       <c r="A59" s="44">
         <v>52</v>
       </c>
@@ -46282,11 +46240,11 @@
         <v>742</v>
       </c>
       <c r="AE59" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF59" s="67"/>
     </row>
-    <row r="60" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:32" ht="81" customHeight="1">
       <c r="A60" s="44">
         <v>53</v>
       </c>
@@ -46384,11 +46342,11 @@
         <v>737</v>
       </c>
       <c r="AE60" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF60" s="67"/>
     </row>
-    <row r="61" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:32" ht="81" customHeight="1">
       <c r="A61" s="44">
         <v>54</v>
       </c>
@@ -46486,11 +46444,11 @@
         <v>755</v>
       </c>
       <c r="AE61" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF61" s="67"/>
     </row>
-    <row r="62" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:32" ht="81" customHeight="1">
       <c r="A62" s="44">
         <v>55</v>
       </c>
@@ -46588,11 +46546,11 @@
         <v>685</v>
       </c>
       <c r="AE62" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF62" s="67"/>
     </row>
-    <row r="63" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:32" ht="81" customHeight="1">
       <c r="A63" s="44">
         <v>56</v>
       </c>
@@ -46690,11 +46648,11 @@
         <v>767</v>
       </c>
       <c r="AE63" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF63" s="67"/>
     </row>
-    <row r="64" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:32" ht="81" customHeight="1">
       <c r="A64" s="44">
         <v>57</v>
       </c>
@@ -46792,11 +46750,11 @@
         <v>763</v>
       </c>
       <c r="AE64" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF64" s="67"/>
     </row>
-    <row r="65" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:32" ht="81" customHeight="1">
       <c r="A65" s="44">
         <v>58</v>
       </c>
@@ -46894,11 +46852,11 @@
         <v>615</v>
       </c>
       <c r="AE65" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF65" s="67"/>
     </row>
-    <row r="66" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:32" ht="81" customHeight="1">
       <c r="A66" s="44">
         <v>59</v>
       </c>
@@ -46996,11 +46954,11 @@
         <v>644</v>
       </c>
       <c r="AE66" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF66" s="151"/>
     </row>
-    <row r="67" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:32" ht="81" customHeight="1">
       <c r="A67" s="44">
         <v>60</v>
       </c>
@@ -47098,11 +47056,11 @@
         <v>737</v>
       </c>
       <c r="AE67" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF67" s="67"/>
     </row>
-    <row r="68" spans="1:32" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:32" ht="81" customHeight="1">
       <c r="A68" s="44">
         <v>61</v>
       </c>
@@ -47200,7 +47158,7 @@
         <v>725</v>
       </c>
       <c r="AE68" s="46" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AF68" s="67"/>
     </row>
